--- a/evaluation/human/aggregate_evaluation_human.xlsx
+++ b/evaluation/human/aggregate_evaluation_human.xlsx
@@ -1,40 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuhashi/github.com/mitsuhashi/chat-togovar/evaluation/human/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A959434F-37DC-B848-8DE9-23527E07AE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="500" windowWidth="27540" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
     <sheet name="Category Averages" sheetId="2" r:id="rId2"/>
     <sheet name="Win Rates" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="250">
   <si>
     <t>ID</t>
   </si>
@@ -288,6 +270,60 @@
     <t>q36</t>
   </si>
   <si>
+    <t>q37</t>
+  </si>
+  <si>
+    <t>q39</t>
+  </si>
+  <si>
+    <t>q40</t>
+  </si>
+  <si>
+    <t>q41</t>
+  </si>
+  <si>
+    <t>q42</t>
+  </si>
+  <si>
+    <t>q43</t>
+  </si>
+  <si>
+    <t>q44</t>
+  </si>
+  <si>
+    <t>q45</t>
+  </si>
+  <si>
+    <t>q46</t>
+  </si>
+  <si>
+    <t>q48</t>
+  </si>
+  <si>
+    <t>q49</t>
+  </si>
+  <si>
+    <t>q50</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q11</t>
+  </si>
+  <si>
+    <t>q22</t>
+  </si>
+  <si>
+    <t>q38</t>
+  </si>
+  <si>
+    <t>q47</t>
+  </si>
+  <si>
     <t>rs704341</t>
   </si>
   <si>
@@ -375,6 +411,9 @@
     <t>rs794726721</t>
   </si>
   <si>
+    <t>rs796052984</t>
+  </si>
+  <si>
     <t>VarChat</t>
   </si>
   <si>
@@ -465,12 +504,91 @@
     <t>この手の推論はTogoVarのような正確なデータがあると得意かも</t>
   </si>
   <si>
+    <t>民族間の頻度から進化的な背景を考察してくれるのは面白い</t>
+  </si>
+  <si>
+    <t>正確なエビデンスをもとに情報を提供してくれるのが良い</t>
+  </si>
+  <si>
+    <t>情報が正確で良い</t>
+  </si>
+  <si>
+    <t>コーディング領域のバリアントであるという正確な情報から、シス作用エレメントに与える影響を考察しているのが良い</t>
+  </si>
+  <si>
+    <t>正しい頻度情報や疾患関連情報から考察を行う良い例</t>
+  </si>
+  <si>
+    <t>最も得意な質問</t>
+  </si>
+  <si>
+    <t>得意</t>
+  </si>
+  <si>
+    <t>GRCh37のロケーションはdbSNPには存在するが、なぜTogoVarが提供してないのか？</t>
+  </si>
+  <si>
+    <t>AAAGのdeletionなのはdbSNPを見て確認できたが、代替アレルがCなのはなぜか？</t>
+  </si>
+  <si>
+    <t>TogoVarのデータが有効に働く良い例</t>
+  </si>
+  <si>
+    <t>最新の臨床研究結果などはVarChatが強い</t>
+  </si>
+  <si>
+    <t>薬物代謝や薬剤応答の除法がTogoVarにはない</t>
+  </si>
+  <si>
+    <t>この答えをVarChatがうまく出せないことを考えると、TogoVarのアプローチが最も汎用的な気がする→つまり様々な質問に対応できる</t>
+  </si>
+  <si>
+    <t>この手の質問に回答しやすいデータがTogoVarには揃っている</t>
+  </si>
+  <si>
     <t>この遺伝子に対する疾患情報がもう少し欲しい</t>
   </si>
   <si>
     <t>転写調節関係のデータが充実すると良い結果を得られる可能性がある</t>
   </si>
   <si>
+    <t>TogoVarに転写調節因子に関する情報が組み込まれると良い。
+RegulomeDBやENCODEなどのデータを組み込むことを検討すると良い？</t>
+  </si>
+  <si>
+    <t>同様の影響を持つ他のバリアントの探索については、どのようなエビデンスが役立つのか、検討する余地あり</t>
+  </si>
+  <si>
+    <t>問題の意味を勘違いしている</t>
+  </si>
+  <si>
+    <t>問題設定が難しい。TogoVarにバリアント間の関連情報を付与できないか？例えば、PubTatorにバリアント間情報がないか？</t>
+  </si>
+  <si>
+    <t>TogoVarにハプロタイプデータが必要</t>
+  </si>
+  <si>
+    <t>HaploRegやLDlinkなどのツールのデータを組み込めないか</t>
+  </si>
+  <si>
+    <t>同じ遺伝子内の関連バリアントの情報を、バリアントのAPIに持たせるか、もう一度遺伝子情報のAPIにアクセスするか、検討の余地あり</t>
+  </si>
+  <si>
+    <t>難易度の高い質問。このような質問にどう答えるかを考察することは、TogoVarの改善につながる</t>
+  </si>
+  <si>
+    <t>TogoVarには疾患情報が足りてない例</t>
+  </si>
+  <si>
+    <t>バリアントに関するより詳しい情報（進化的な情報など）があると、より面白くなる</t>
+  </si>
+  <si>
+    <t>直接バリアントに関係ないにしてもシスエレメントの情報が欲しい</t>
+  </si>
+  <si>
+    <t>同じ遺伝子内の、類似バリアントや関連バリアントの情報をTogoVarで提示するのは面白いかも</t>
+  </si>
+  <si>
     <t>情報は正しいが、エビデンスとなるソースへのリンクが充実すると良い</t>
   </si>
   <si>
@@ -486,6 +604,12 @@
     <t>TogoVarは文献情報をもっと利用すべきことを指摘する良い例かもしれない</t>
   </si>
   <si>
+    <t>質問の正確な意味をとらえてない</t>
+  </si>
+  <si>
+    <t>問題の意味を理解し、再度TogoVarにAPIでアクセスして、このバリアントを含む遺伝子の情報をとってくると、この手の問題に答えることができるかもしれない</t>
+  </si>
+  <si>
     <t>ChatGPTはこのマッピングを間違えるのが大きな欠点</t>
   </si>
   <si>
@@ -537,9 +661,36 @@
     <t>あまりにもひどいハルシネーション</t>
   </si>
   <si>
+    <t>バリアントレベルで情報を紐づけることができないのが致命的</t>
+  </si>
+  <si>
+    <t>バリアントレベルで正解な情報を紐づけてないのが致命的</t>
+  </si>
+  <si>
+    <t>バリアントと遺伝子の紐付けを間違っている</t>
+  </si>
+  <si>
+    <t>バリアントと遺伝子の紐付けが間違っている</t>
+  </si>
+  <si>
+    <t>バリアントと遺伝子の紐付けを間違えることで、全ての回答が間違ってしまう</t>
+  </si>
+  <si>
+    <t>遺伝子を特定できてない</t>
+  </si>
+  <si>
+    <t>完全に間違っている</t>
+  </si>
+  <si>
+    <t>バリアントレベルで正確な情報を取得するのはほとんど無理</t>
+  </si>
+  <si>
     <t>情報を全く取れない場合は、ChatGPTの方がより広く情報を拾うためリッチかも</t>
   </si>
   <si>
+    <t>実際の値も欲しい</t>
+  </si>
+  <si>
     <t>エビデンスが足りない</t>
   </si>
   <si>
@@ -577,6 +728,15 @@
   </si>
   <si>
     <t>この手の質問は文献情報を使う方がリッチな回答を生成できる</t>
+  </si>
+  <si>
+    <t>この手の質問には回答できない</t>
+  </si>
+  <si>
+    <t>この手の質問は答えることができない</t>
+  </si>
+  <si>
+    <t>この手の質問には答えることができない</t>
   </si>
   <si>
     <t>Model</t>
@@ -612,12 +772,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -625,15 +785,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -679,34 +832,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="111"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="11"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="11"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -724,22 +860,19 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>ChatTogoVar</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Category Averages'!$B$2:$B$6</c:f>
@@ -770,28 +903,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.64</c:v>
+                  <c:v>8.633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4933333333333341</c:v>
+                  <c:v>7.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.64</c:v>
+                  <c:v>8.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.64</c:v>
+                  <c:v>8.566666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.44</c:v>
+                  <c:v>8.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B845-4848-A0D4-183E2C3261A6}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -799,7 +927,6 @@
           <c:tx>
             <c:v>GPT4o</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Category Averages'!$B$7:$B$11</c:f>
@@ -830,28 +957,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.2799999999999998</c:v>
+                  <c:v>2.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.88</c:v>
+                  <c:v>5.033333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9333333333333336</c:v>
+                  <c:v>5.266666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0133333333333336</c:v>
+                  <c:v>5.866666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0533333333333328</c:v>
+                  <c:v>2.553333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B845-4848-A0D4-183E2C3261A6}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -859,7 +981,6 @@
           <c:tx>
             <c:v>VarChat</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Category Averages'!$B$12:$B$16</c:f>
@@ -890,38 +1011,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.4933333333333332</c:v>
+                  <c:v>7.133333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.706666666666667</c:v>
+                  <c:v>4.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7333333333333334</c:v>
+                  <c:v>6.026666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5733333333333333</c:v>
+                  <c:v>6.873333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5866666666666669</c:v>
+                  <c:v>6.366666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B845-4848-A0D4-183E2C3261A6}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:barChart>
@@ -930,7 +1037,6 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -948,25 +1054,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -985,11 +1086,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -998,11 +1097,9 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1029,13 +1126,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1054,9 +1145,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1094,7 +1185,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1128,7 +1219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1163,10 +1253,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1339,18 +1428,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AZ151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
@@ -1518,22 +1601,22 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" t="str">
+        <v>132</v>
+      </c>
+      <c r="E2">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q1/rs704341.md", "39")</f>
-        <v>39</v>
-      </c>
-      <c r="F2" t="str">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q1/rs704341.md", "19")</f>
-        <v>19</v>
-      </c>
-      <c r="G2" t="str">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs704341.md", "40")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1589,22 +1672,22 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" t="str">
+        <v>133</v>
+      </c>
+      <c r="E3">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q1/rs762927460.md", "40")</f>
-        <v>40</v>
-      </c>
-      <c r="F3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q1/rs762927460.md", "16")</f>
-        <v>16</v>
-      </c>
-      <c r="G3" t="str">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs762927460.md", "38")</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -1660,22 +1743,22 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" t="str">
+        <v>133</v>
+      </c>
+      <c r="E4">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q1/rs12037987.md", "40")</f>
-        <v>40</v>
-      </c>
-      <c r="F4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q1/rs12037987.md", "19")</f>
-        <v>19</v>
-      </c>
-      <c r="G4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs12037987.md", "38")</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -1731,22 +1814,22 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" t="str">
+        <v>133</v>
+      </c>
+      <c r="E5">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q2/rs571414497.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q2/rs571414497.md", "5")</f>
-        <v>5</v>
-      </c>
-      <c r="G5" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs571414497.md", "13")</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -1802,22 +1885,22 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" t="str">
+        <v>133</v>
+      </c>
+      <c r="E6">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q3/rs80356821.md", "48")</f>
-        <v>48</v>
-      </c>
-      <c r="F6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q3/rs80356821.md", "5")</f>
-        <v>5</v>
-      </c>
-      <c r="G6" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs80356821.md", "43")</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -1838,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -1876,22 +1959,22 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" t="str">
+        <v>133</v>
+      </c>
+      <c r="E7">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q3/rs1201448391.md", "50")</f>
-        <v>50</v>
-      </c>
-      <c r="F7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q3/rs1201448391.md", "5")</f>
-        <v>5</v>
-      </c>
-      <c r="G7" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1201448391.md", "45")</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -1912,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="Y7" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1950,22 +2033,22 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" t="str">
+        <v>133</v>
+      </c>
+      <c r="E8">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q3/rs431905511.md", "47")</f>
-        <v>47</v>
-      </c>
-      <c r="F8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q3/rs431905511.md", "5")</f>
-        <v>5</v>
-      </c>
-      <c r="G8" t="str">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs431905511.md", "46")</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -2021,22 +2104,22 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" t="str">
+        <v>133</v>
+      </c>
+      <c r="E9">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q3/rs121913529.md", "47")</f>
-        <v>47</v>
-      </c>
-      <c r="F9" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q3/rs121913529.md", "5")</f>
-        <v>5</v>
-      </c>
-      <c r="G9" t="str">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs121913529.md", "46")</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -2092,22 +2175,22 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" t="str">
+        <v>133</v>
+      </c>
+      <c r="E10">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q5/rs745774658.md", "47")</f>
-        <v>47</v>
-      </c>
-      <c r="F10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q5/rs745774658.md", "41")</f>
-        <v>41</v>
-      </c>
-      <c r="G10" t="str">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs745774658.md", "39")</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -2163,22 +2246,22 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" t="str">
+        <v>133</v>
+      </c>
+      <c r="E11">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q7/rs745774658.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F11" t="str">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q7/rs745774658.md", "28")</f>
-        <v>28</v>
-      </c>
-      <c r="G11" t="str">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs745774658.md", "29")</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -2234,22 +2317,22 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" t="str">
+        <v>133</v>
+      </c>
+      <c r="E12">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q7/rs880315.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F12" t="str">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q7/rs880315.md", "30")</f>
-        <v>30</v>
-      </c>
-      <c r="G12" t="str">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs880315.md", "39")</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>9</v>
@@ -2305,22 +2388,22 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" t="str">
+        <v>133</v>
+      </c>
+      <c r="E13">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q7/rs796053166.md", "40")</f>
-        <v>40</v>
-      </c>
-      <c r="F13" t="str">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q7/rs796053166.md", "8")</f>
-        <v>8</v>
-      </c>
-      <c r="G13" t="str">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053166.md", "26")</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>8</v>
@@ -2376,22 +2459,22 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" t="str">
+        <v>133</v>
+      </c>
+      <c r="E14">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q7/rs796053229.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F14" t="str">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q7/rs796053229.md", "5")</f>
-        <v>5</v>
-      </c>
-      <c r="G14" t="str">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053229.md", "27")</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>9</v>
@@ -2447,22 +2530,22 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" t="str">
+        <v>133</v>
+      </c>
+      <c r="E15">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q8/rs80356821.md", "40")</f>
-        <v>40</v>
-      </c>
-      <c r="F15" t="str">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q8/rs80356821.md", "8")</f>
-        <v>8</v>
-      </c>
-      <c r="G15" t="str">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs80356821.md", "21")</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>8</v>
@@ -2518,22 +2601,22 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" t="str">
+        <v>133</v>
+      </c>
+      <c r="E16">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q8/rs794726784.md", "40")</f>
-        <v>40</v>
-      </c>
-      <c r="F16" t="str">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q8/rs794726784.md", "38")</f>
-        <v>38</v>
-      </c>
-      <c r="G16" t="str">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794726784.md", "19")</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>8</v>
@@ -2563,13 +2646,13 @@
         <v>7</v>
       </c>
       <c r="AH16" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="AI16">
         <v>7</v>
       </c>
       <c r="AK16" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="AL16">
         <v>5</v>
@@ -2595,22 +2678,22 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" t="str">
+        <v>133</v>
+      </c>
+      <c r="E17">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q9/rs763684724.md", "42")</f>
-        <v>42</v>
-      </c>
-      <c r="F17" t="str">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q9/rs763684724.md", "30")</f>
-        <v>30</v>
-      </c>
-      <c r="G17" t="str">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs763684724.md", "17")</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>9</v>
@@ -2646,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="AN17" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="AO17">
         <v>3</v>
@@ -2669,22 +2752,22 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" t="str">
+        <v>133</v>
+      </c>
+      <c r="E18">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q9/rs745774658.md", "44")</f>
-        <v>44</v>
-      </c>
-      <c r="F18" t="str">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q9/rs745774658.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G18" t="str">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs745774658.md", "14")</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>9</v>
@@ -2699,7 +2782,7 @@
         <v>8</v>
       </c>
       <c r="S18" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="T18">
         <v>9</v>
@@ -2708,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="Z18">
         <v>5</v>
@@ -2720,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="AH18" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="AI18">
         <v>5</v>
@@ -2729,7 +2812,7 @@
         <v>2</v>
       </c>
       <c r="AN18" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="AO18">
         <v>5</v>
@@ -2752,22 +2835,22 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" t="str">
+        <v>133</v>
+      </c>
+      <c r="E19">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q9/rs876660744.md", "40")</f>
-        <v>40</v>
-      </c>
-      <c r="F19" t="str">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q9/rs876660744.md", "38")</f>
-        <v>38</v>
-      </c>
-      <c r="G19" t="str">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs876660744.md", "21")</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>9</v>
@@ -2782,7 +2865,7 @@
         <v>7</v>
       </c>
       <c r="S19" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="T19">
         <v>8</v>
@@ -2800,7 +2883,7 @@
         <v>5</v>
       </c>
       <c r="AH19" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="AI19">
         <v>8</v>
@@ -2809,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="AN19" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="AO19">
         <v>5</v>
@@ -2832,22 +2915,22 @@
         <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" t="str">
+        <v>133</v>
+      </c>
+      <c r="E20">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q10/rs727504136.md", "43")</f>
-        <v>43</v>
-      </c>
-      <c r="F20" t="str">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q10/rs727504136.md", "25")</f>
-        <v>25</v>
-      </c>
-      <c r="G20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs727504136.md", "19")</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>9</v>
@@ -2862,7 +2945,7 @@
         <v>7</v>
       </c>
       <c r="S20" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="T20">
         <v>9</v>
@@ -2871,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="Y20" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="Z20">
         <v>7</v>
@@ -2889,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="AN20" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="AO20">
         <v>5</v>
@@ -2912,22 +2995,22 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" t="str">
+        <v>134</v>
+      </c>
+      <c r="E21">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q10/rs886042528.md", "40")</f>
-        <v>40</v>
-      </c>
-      <c r="F21" t="str">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q10/rs886042528.md", "41")</f>
-        <v>41</v>
-      </c>
-      <c r="G21" t="str">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs886042528.md", "21")</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>8</v>
@@ -2954,7 +3037,7 @@
         <v>9</v>
       </c>
       <c r="AE21" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="AF21">
         <v>8</v>
@@ -2986,22 +3069,22 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" t="str">
+        <v>133</v>
+      </c>
+      <c r="E22">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q12/rs1057519999.md", "50")</f>
-        <v>50</v>
-      </c>
-      <c r="F22" t="str">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q12/rs1057519999.md", "19")</f>
-        <v>19</v>
-      </c>
-      <c r="G22" t="str">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1057519999.md", "13")</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -3016,7 +3099,7 @@
         <v>10</v>
       </c>
       <c r="S22" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="T22">
         <v>10</v>
@@ -3025,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="Y22" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="Z22">
         <v>5</v>
@@ -3063,28 +3146,28 @@
         <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" t="str">
+        <v>133</v>
+      </c>
+      <c r="E23">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q13/rs763684724.md", "40")</f>
-        <v>40</v>
-      </c>
-      <c r="F23" t="str">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q13/rs763684724.md", "19")</f>
-        <v>19</v>
-      </c>
-      <c r="G23" t="str">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs763684724.md", "19")</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -3102,7 +3185,7 @@
         <v>2</v>
       </c>
       <c r="Y23" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="Z23">
         <v>5</v>
@@ -3140,28 +3223,28 @@
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" t="str">
+        <v>133</v>
+      </c>
+      <c r="E24">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q14/rs886042528.md", "50")</f>
-        <v>50</v>
-      </c>
-      <c r="F24" t="str">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q14/rs886042528.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G24" t="str">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs886042528.md", "25")</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="K24">
         <v>10</v>
@@ -3214,28 +3297,28 @@
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" t="str">
+        <v>133</v>
+      </c>
+      <c r="E25">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q14/rs763684724.md", "40")</f>
-        <v>40</v>
-      </c>
-      <c r="F25" t="str">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q14/rs763684724.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G25" t="str">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs763684724.md", "19")</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="K25">
         <v>8</v>
@@ -3253,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="Y25" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="Z25">
         <v>5</v>
@@ -3291,28 +3374,28 @@
         <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" t="str">
+        <v>133</v>
+      </c>
+      <c r="E26">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q14/rs794727152.md", "43")</f>
-        <v>43</v>
-      </c>
-      <c r="F26" t="str">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q14/rs794727152.md", "14")</f>
-        <v>14</v>
-      </c>
-      <c r="G26" t="str">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794727152.md", "25")</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="K26">
         <v>9</v>
@@ -3330,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="Y26" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="Z26">
         <v>4</v>
@@ -3368,28 +3451,28 @@
         <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" t="str">
+        <v>133</v>
+      </c>
+      <c r="E27">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q14/rs876660744.md", "40")</f>
-        <v>40</v>
-      </c>
-      <c r="F27" t="str">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q14/rs876660744.md", "34")</f>
-        <v>34</v>
-      </c>
-      <c r="G27" t="str">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs876660744.md", "25")</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>8</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -3442,28 +3525,28 @@
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" t="str">
+        <v>133</v>
+      </c>
+      <c r="E28">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q15/rs12037987.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F28" t="str">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q15/rs12037987.md", "14")</f>
-        <v>14</v>
-      </c>
-      <c r="G28" t="str">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs12037987.md", "19")</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>9</v>
       </c>
       <c r="J28" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="K28">
         <v>9</v>
@@ -3481,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="Y28" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="Z28">
         <v>5</v>
@@ -3519,28 +3602,28 @@
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" t="str">
+        <v>133</v>
+      </c>
+      <c r="E29">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q15/rs1208662086.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F29" t="str">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q15/rs1208662086.md", "16")</f>
-        <v>16</v>
-      </c>
-      <c r="G29" t="str">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1208662086.md", "21")</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="K29">
         <v>9</v>
@@ -3558,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="Y29" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="Z29">
         <v>5</v>
@@ -3596,28 +3679,28 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" t="str">
+        <v>133</v>
+      </c>
+      <c r="E30">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q15/rs762927460.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q15/rs762927460.md", "19")</f>
-        <v>19</v>
-      </c>
-      <c r="G30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs762927460.md", "15")</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>9</v>
       </c>
       <c r="J30" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K30">
         <v>9</v>
@@ -3670,28 +3753,28 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" t="str">
+        <v>133</v>
+      </c>
+      <c r="E31">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q16/rs763684724.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F31" t="str">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q16/rs763684724.md", "33")</f>
-        <v>33</v>
-      </c>
-      <c r="G31" t="str">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs763684724.md", "35")</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K31">
         <v>9</v>
@@ -3744,22 +3827,22 @@
         <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" t="str">
+        <v>132</v>
+      </c>
+      <c r="E32">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q16/rs704341.md", "36")</f>
-        <v>36</v>
-      </c>
-      <c r="F32" t="str">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q16/rs704341.md", "19")</f>
-        <v>19</v>
-      </c>
-      <c r="G32" t="str">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs704341.md", "40")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>8</v>
@@ -3771,7 +3854,7 @@
         <v>6</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -3783,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="Y32" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="Z32">
         <v>5</v>
@@ -3821,28 +3904,28 @@
         <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" t="str">
+        <v>133</v>
+      </c>
+      <c r="E33">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q17/rs34637584.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F33" t="str">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q17/rs34637584.md", "19")</f>
-        <v>19</v>
-      </c>
-      <c r="G33" t="str">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs34637584.md", "35")</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>9</v>
       </c>
       <c r="J33" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="K33">
         <v>9</v>
@@ -3860,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="Y33" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="Z33">
         <v>5</v>
@@ -3898,28 +3981,28 @@
         <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" t="str">
+        <v>133</v>
+      </c>
+      <c r="E34">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q17/rs796053216.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F34" t="str">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q17/rs796053216.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G34" t="str">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053216.md", "40")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="K34">
         <v>9</v>
@@ -3972,20 +4055,20 @@
         <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" t="str">
+        <v>133</v>
+      </c>
+      <c r="E35">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q18/rs571414497.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F35" t="str">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q18/rs571414497.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G35" t="str">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs571414497.md", "0")</f>
         <v>0</v>
       </c>
@@ -3993,7 +4076,7 @@
         <v>9</v>
       </c>
       <c r="J35" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="K35">
         <v>9</v>
@@ -4011,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="Y35" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="Z35">
         <v>5</v>
@@ -4049,28 +4132,28 @@
         <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" t="str">
+        <v>133</v>
+      </c>
+      <c r="E36">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q18/rs121913279.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F36" t="str">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q18/rs121913279.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G36" t="str">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs121913279.md", "43")</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K36">
         <v>9</v>
@@ -4088,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="Y36" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="Z36">
         <v>5</v>
@@ -4126,22 +4209,22 @@
         <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" t="str">
+        <v>132</v>
+      </c>
+      <c r="E37">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q18/rs794726784.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F37" t="str">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q18/rs794726784.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G37" t="str">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794726784.md", "46")</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>9</v>
@@ -4162,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="Y37" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="Z37">
         <v>5</v>
@@ -4180,7 +4263,7 @@
         <v>9</v>
       </c>
       <c r="AN37" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="AO37">
         <v>9</v>
@@ -4203,22 +4286,22 @@
         <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" t="str">
+        <v>133</v>
+      </c>
+      <c r="E38">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q18/rs886042528.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F38" t="str">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q18/rs886042528.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G38" t="str">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs886042528.md", "40")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>9</v>
@@ -4274,22 +4357,22 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" t="str">
+        <v>133</v>
+      </c>
+      <c r="E39">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q19/rs431905511.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F39" t="str">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q19/rs431905511.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G39" t="str">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs431905511.md", "25")</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>9</v>
@@ -4310,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="Y39" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="Z39">
         <v>5</v>
@@ -4348,22 +4431,22 @@
         <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" t="str">
+        <v>134</v>
+      </c>
+      <c r="E40">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q19/rs1201448391.md", "25")</f>
-        <v>25</v>
-      </c>
-      <c r="F40" t="str">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q19/rs1201448391.md", "27")</f>
-        <v>27</v>
-      </c>
-      <c r="G40" t="str">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1201448391.md", "25")</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4419,22 +4502,22 @@
         <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" t="str">
+        <v>132</v>
+      </c>
+      <c r="E41">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q20/rs880315.md", "42")</f>
-        <v>42</v>
-      </c>
-      <c r="F41" t="str">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q20/rs880315.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G41" t="str">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs880315.md", "45")</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>8</v>
@@ -4449,7 +4532,7 @@
         <v>8</v>
       </c>
       <c r="S41" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="T41">
         <v>9</v>
@@ -4458,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="Y41" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="Z41">
         <v>5</v>
@@ -4476,7 +4559,7 @@
         <v>9</v>
       </c>
       <c r="AN41" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="AO41">
         <v>9</v>
@@ -4499,22 +4582,22 @@
         <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" t="str">
+        <v>132</v>
+      </c>
+      <c r="E42">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q21/rs121913529.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F42" t="str">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q21/rs121913529.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G42" t="str">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs121913529.md", "47")</f>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>9</v>
@@ -4535,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="Y42" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="Z42">
         <v>5</v>
@@ -4553,7 +4636,7 @@
         <v>9</v>
       </c>
       <c r="AN42" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="AO42">
         <v>9</v>
@@ -4576,22 +4659,22 @@
         <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" t="str">
+        <v>133</v>
+      </c>
+      <c r="E43">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q21/rs1208662086.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F43" t="str">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q21/rs1208662086.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G43" t="str">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1208662086.md", "44")</f>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>9</v>
@@ -4647,28 +4730,28 @@
         <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" t="str">
+        <v>133</v>
+      </c>
+      <c r="E44">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q23/rs880315.md", "50")</f>
-        <v>50</v>
-      </c>
-      <c r="F44" t="str">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q23/rs880315.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G44" t="str">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs880315.md", "34")</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>10</v>
       </c>
       <c r="J44" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K44">
         <v>10</v>
@@ -4721,22 +4804,22 @@
         <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" t="str">
+        <v>133</v>
+      </c>
+      <c r="E45">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q23/rs796053166.md", "50")</f>
-        <v>50</v>
-      </c>
-      <c r="F45" t="str">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q23/rs796053166.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G45" t="str">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053166.md", "34")</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>10</v>
@@ -4792,28 +4875,28 @@
         <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" t="str">
+        <v>133</v>
+      </c>
+      <c r="E46">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q24/rs587782044.md", "41")</f>
-        <v>41</v>
-      </c>
-      <c r="F46" t="str">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q24/rs587782044.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G46" t="str">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs587782044.md", "34")</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>7</v>
       </c>
       <c r="J46" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="K46">
         <v>9</v>
@@ -4846,7 +4929,7 @@
         <v>8</v>
       </c>
       <c r="AN46" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="AO46">
         <v>8</v>
@@ -4869,22 +4952,22 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" t="str">
+        <v>133</v>
+      </c>
+      <c r="E47">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q24/rs1489788269.md", "43")</f>
-        <v>43</v>
-      </c>
-      <c r="F47" t="str">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q24/rs1489788269.md", "25")</f>
-        <v>25</v>
-      </c>
-      <c r="G47" t="str">
+        <v>0</v>
+      </c>
+      <c r="G47">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1489788269.md", "34")</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>8</v>
@@ -4940,28 +5023,28 @@
         <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" t="str">
+        <v>133</v>
+      </c>
+      <c r="E48">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q24/rs796053166.md", "40")</f>
-        <v>40</v>
-      </c>
-      <c r="F48" t="str">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q24/rs796053166.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G48" t="str">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053166.md", "35")</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>8</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="K48">
         <v>8</v>
@@ -5014,28 +5097,28 @@
         <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" t="str">
+        <v>133</v>
+      </c>
+      <c r="E49">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q25/rs1170153450.md", "35")</f>
-        <v>35</v>
-      </c>
-      <c r="F49" t="str">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q25/rs1170153450.md", "21")</f>
-        <v>21</v>
-      </c>
-      <c r="G49" t="str">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1170153450.md", "21")</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>7</v>
       </c>
       <c r="J49" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="K49">
         <v>8</v>
@@ -5088,28 +5171,28 @@
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" t="str">
+        <v>133</v>
+      </c>
+      <c r="E50">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q25/rs876660744.md", "35")</f>
-        <v>35</v>
-      </c>
-      <c r="F50" t="str">
+        <v>0</v>
+      </c>
+      <c r="F50">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q25/rs876660744.md", "26")</f>
-        <v>26</v>
-      </c>
-      <c r="G50" t="str">
+        <v>0</v>
+      </c>
+      <c r="G50">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs876660744.md", "24")</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>7</v>
       </c>
       <c r="J50" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="K50">
         <v>7</v>
@@ -5162,22 +5245,22 @@
         <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
-      </c>
-      <c r="E51" t="str">
+        <v>133</v>
+      </c>
+      <c r="E51">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q25/rs121918719.md", "35")</f>
-        <v>35</v>
-      </c>
-      <c r="F51" t="str">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q25/rs121918719.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs121918719.md", "30")</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>7</v>
@@ -5233,28 +5316,28 @@
         <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" t="str">
+        <v>133</v>
+      </c>
+      <c r="E52">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q26/rs794726784.md", "39")</f>
-        <v>39</v>
-      </c>
-      <c r="F52" t="str">
+        <v>0</v>
+      </c>
+      <c r="F52">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q26/rs794726784.md", "15")</f>
-        <v>15</v>
-      </c>
-      <c r="G52" t="str">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794726784.md", "27")</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>8</v>
       </c>
       <c r="J52" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="K52">
         <v>8</v>
@@ -5272,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="Y52" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="Z52">
         <v>5</v>
@@ -5290,7 +5373,7 @@
         <v>7</v>
       </c>
       <c r="AN52" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="AO52">
         <v>7</v>
@@ -5313,22 +5396,22 @@
         <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" t="str">
+        <v>133</v>
+      </c>
+      <c r="E53">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q26/rs80356821.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F53" t="str">
+        <v>0</v>
+      </c>
+      <c r="F53">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q26/rs80356821.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G53" t="str">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs80356821.md", "33")</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>9</v>
@@ -5384,28 +5467,28 @@
         <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" t="str">
+        <v>133</v>
+      </c>
+      <c r="E54">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q27/rs1201448391.md", "42")</f>
-        <v>42</v>
-      </c>
-      <c r="F54" t="str">
+        <v>0</v>
+      </c>
+      <c r="F54">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q27/rs1201448391.md", "35")</f>
-        <v>35</v>
-      </c>
-      <c r="G54" t="str">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1201448391.md", "25")</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>9</v>
       </c>
       <c r="J54" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="K54">
         <v>9</v>
@@ -5458,28 +5541,28 @@
         <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" t="str">
+        <v>133</v>
+      </c>
+      <c r="E55">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q28/rs113488022.md", "46")</f>
-        <v>46</v>
-      </c>
-      <c r="F55" t="str">
+        <v>0</v>
+      </c>
+      <c r="F55">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q28/rs113488022.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G55" t="str">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs113488022.md", "40")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>9</v>
       </c>
       <c r="J55" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="K55">
         <v>9</v>
@@ -5532,22 +5615,22 @@
         <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" t="str">
+        <v>133</v>
+      </c>
+      <c r="E56">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q28/rs794727152.md", "40")</f>
-        <v>40</v>
-      </c>
-      <c r="F56" t="str">
+        <v>0</v>
+      </c>
+      <c r="F56">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q28/rs794727152.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G56" t="str">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794727152.md", "30")</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>8</v>
@@ -5603,28 +5686,28 @@
         <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" t="str">
+        <v>133</v>
+      </c>
+      <c r="E57">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q29/rs796053166.md", "47")</f>
-        <v>47</v>
-      </c>
-      <c r="F57" t="str">
+        <v>0</v>
+      </c>
+      <c r="F57">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q29/rs796053166.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G57" t="str">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053166.md", "30")</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>9</v>
       </c>
       <c r="J57" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="K57">
         <v>9</v>
@@ -5677,22 +5760,22 @@
         <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" t="str">
+        <v>133</v>
+      </c>
+      <c r="E58">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q29/rs34637584.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F58" t="str">
+        <v>0</v>
+      </c>
+      <c r="F58">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q29/rs34637584.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G58" t="str">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs34637584.md", "40")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>9</v>
@@ -5748,22 +5831,22 @@
         <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" t="str">
+        <v>133</v>
+      </c>
+      <c r="E59">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q29/rs763684724.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F59" t="str">
+        <v>0</v>
+      </c>
+      <c r="F59">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q29/rs763684724.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G59" t="str">
+        <v>0</v>
+      </c>
+      <c r="G59">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs763684724.md", "40")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>9</v>
@@ -5819,28 +5902,28 @@
         <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" t="str">
+        <v>133</v>
+      </c>
+      <c r="E60">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q30/rs796053166.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F60" t="str">
+        <v>0</v>
+      </c>
+      <c r="F60">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q30/rs796053166.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G60" t="str">
+        <v>0</v>
+      </c>
+      <c r="G60">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053166.md", "25")</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>9</v>
       </c>
       <c r="J60" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="K60">
         <v>9</v>
@@ -5893,22 +5976,22 @@
         <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
-      </c>
-      <c r="E61" t="str">
+        <v>132</v>
+      </c>
+      <c r="E61">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q30/rs745774658.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F61" t="str">
+        <v>0</v>
+      </c>
+      <c r="F61">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q30/rs745774658.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G61" t="str">
+        <v>0</v>
+      </c>
+      <c r="G61">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs745774658.md", "48")</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>9</v>
@@ -5950,7 +6033,7 @@
         <v>10</v>
       </c>
       <c r="AT61" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="AU61">
         <v>10</v>
@@ -5967,22 +6050,22 @@
         <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
-      </c>
-      <c r="E62" t="str">
+        <v>133</v>
+      </c>
+      <c r="E62">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q31/rs1489788269.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F62" t="str">
+        <v>0</v>
+      </c>
+      <c r="F62">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q31/rs1489788269.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G62" t="str">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1489788269.md", "25")</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>9</v>
@@ -6038,22 +6121,22 @@
         <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
-      </c>
-      <c r="E63" t="str">
+        <v>133</v>
+      </c>
+      <c r="E63">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q31/rs704341.md", "43")</f>
-        <v>43</v>
-      </c>
-      <c r="F63" t="str">
+        <v>0</v>
+      </c>
+      <c r="F63">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q31/rs704341.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G63" t="str">
+        <v>0</v>
+      </c>
+      <c r="G63">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs704341.md", "40")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>9</v>
@@ -6065,7 +6148,7 @@
         <v>7</v>
       </c>
       <c r="P63" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -6112,22 +6195,22 @@
         <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" t="str">
+        <v>133</v>
+      </c>
+      <c r="E64">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q32/rs745774658.md", "35")</f>
-        <v>35</v>
-      </c>
-      <c r="F64" t="str">
+        <v>0</v>
+      </c>
+      <c r="F64">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q32/rs745774658.md", "31")</f>
-        <v>31</v>
-      </c>
-      <c r="G64" t="str">
+        <v>0</v>
+      </c>
+      <c r="G64">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs745774658.md", "31")</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>7</v>
@@ -6183,22 +6266,22 @@
         <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
-      </c>
-      <c r="E65" t="str">
+        <v>133</v>
+      </c>
+      <c r="E65">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q32/rs794726721.md", "40")</f>
-        <v>40</v>
-      </c>
-      <c r="F65" t="str">
+        <v>0</v>
+      </c>
+      <c r="F65">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q32/rs794726721.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G65" t="str">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794726721.md", "40")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>8</v>
@@ -6254,22 +6337,22 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>113</v>
-      </c>
-      <c r="E66" t="str">
+        <v>132</v>
+      </c>
+      <c r="E66">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q32/rs796053166.md", "31")</f>
-        <v>31</v>
-      </c>
-      <c r="F66" t="str">
+        <v>0</v>
+      </c>
+      <c r="F66">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q32/rs796053166.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G66" t="str">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053166.md", "40")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>7</v>
@@ -6325,22 +6408,22 @@
         <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" t="str">
+        <v>133</v>
+      </c>
+      <c r="E67">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q32/rs762927460.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F67" t="str">
+        <v>0</v>
+      </c>
+      <c r="F67">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q32/rs762927460.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G67" t="str">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs762927460.md", "42")</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>9</v>
@@ -6396,22 +6479,22 @@
         <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" t="str">
+        <v>133</v>
+      </c>
+      <c r="E68">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q32/rs1170153450.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F68" t="str">
+        <v>0</v>
+      </c>
+      <c r="F68">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q32/rs1170153450.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G68" t="str">
+        <v>0</v>
+      </c>
+      <c r="G68">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1170153450.md", "42")</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>9</v>
@@ -6467,22 +6550,22 @@
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
-      </c>
-      <c r="E69" t="str">
+        <v>133</v>
+      </c>
+      <c r="E69">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q32/rs80356821.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F69" t="str">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q32/rs80356821.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G69" t="str">
+        <v>0</v>
+      </c>
+      <c r="G69">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs80356821.md", "40")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>9</v>
@@ -6538,22 +6621,22 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D70" t="s">
-        <v>114</v>
-      </c>
-      <c r="E70" t="str">
+        <v>133</v>
+      </c>
+      <c r="E70">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q32/rs886042528.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F70" t="str">
+        <v>0</v>
+      </c>
+      <c r="F70">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q32/rs886042528.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G70" t="str">
+        <v>0</v>
+      </c>
+      <c r="G70">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs886042528.md", "40")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>9</v>
@@ -6609,28 +6692,28 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
-      </c>
-      <c r="E71" t="str">
+        <v>133</v>
+      </c>
+      <c r="E71">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q33/rs745774658.md", "43")</f>
-        <v>43</v>
-      </c>
-      <c r="F71" t="str">
+        <v>0</v>
+      </c>
+      <c r="F71">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q33/rs745774658.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G71" t="str">
+        <v>0</v>
+      </c>
+      <c r="G71">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs745774658.md", "21")</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>9</v>
       </c>
       <c r="J71" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="K71">
         <v>9</v>
@@ -6683,22 +6766,22 @@
         <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
-      </c>
-      <c r="E72" t="str">
+        <v>133</v>
+      </c>
+      <c r="E72">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q33/rs431905511.md", "31")</f>
-        <v>31</v>
-      </c>
-      <c r="F72" t="str">
+        <v>0</v>
+      </c>
+      <c r="F72">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q33/rs431905511.md", "24")</f>
-        <v>24</v>
-      </c>
-      <c r="G72" t="str">
+        <v>0</v>
+      </c>
+      <c r="G72">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs431905511.md", "23")</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>7</v>
@@ -6754,28 +6837,28 @@
         <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" t="str">
+        <v>133</v>
+      </c>
+      <c r="E73">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q34/rs80356821.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F73" t="str">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q34/rs80356821.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G73" t="str">
+        <v>0</v>
+      </c>
+      <c r="G73">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs80356821.md", "28")</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>9</v>
       </c>
       <c r="J73" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="K73">
         <v>9</v>
@@ -6828,28 +6911,28 @@
         <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" t="str">
+        <v>133</v>
+      </c>
+      <c r="E74">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q35/rs1201448391.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F74" t="str">
+        <v>0</v>
+      </c>
+      <c r="F74">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q35/rs1201448391.md", "24")</f>
-        <v>24</v>
-      </c>
-      <c r="G74" t="str">
+        <v>0</v>
+      </c>
+      <c r="G74">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1201448391.md", "28")</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>9</v>
       </c>
       <c r="J74" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="K74">
         <v>9</v>
@@ -6902,22 +6985,22 @@
         <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
-      </c>
-      <c r="E75" t="str">
+        <v>133</v>
+      </c>
+      <c r="E75">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q36/rs794727152.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F75" t="str">
+        <v>0</v>
+      </c>
+      <c r="F75">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q36/rs794727152.md", "17")</f>
-        <v>17</v>
-      </c>
-      <c r="G75" t="str">
+        <v>0</v>
+      </c>
+      <c r="G75">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794727152.md", "37")</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>9</v>
@@ -6973,28 +7056,28 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
-      </c>
-      <c r="E76" t="str">
+        <v>133</v>
+      </c>
+      <c r="E76">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q36/rs587782044.md", "45")</f>
-        <v>45</v>
-      </c>
-      <c r="F76" t="str">
+        <v>0</v>
+      </c>
+      <c r="F76">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q36/rs587782044.md", "20")</f>
-        <v>20</v>
-      </c>
-      <c r="G76" t="str">
+        <v>0</v>
+      </c>
+      <c r="G76">
         <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs587782044.md", "24")</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>9</v>
       </c>
       <c r="J76" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="K76">
         <v>9</v>
@@ -7039,257 +7122,5702 @@
         <v>5</v>
       </c>
     </row>
+    <row r="77" spans="1:50">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" t="s">
+        <v>133</v>
+      </c>
+      <c r="E77">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q36/rs12037987.md", "44")</f>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q36/rs12037987.md", "17")</f>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs12037987.md", "38")</f>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>8</v>
+      </c>
+      <c r="J77" t="s">
+        <v>162</v>
+      </c>
+      <c r="K77">
+        <v>9</v>
+      </c>
+      <c r="N77">
+        <v>9</v>
+      </c>
+      <c r="Q77">
+        <v>9</v>
+      </c>
+      <c r="T77">
+        <v>9</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>5</v>
+      </c>
+      <c r="AC77">
+        <v>5</v>
+      </c>
+      <c r="AF77">
+        <v>1</v>
+      </c>
+      <c r="AI77">
+        <v>5</v>
+      </c>
+      <c r="AL77">
+        <v>8</v>
+      </c>
+      <c r="AO77">
+        <v>8</v>
+      </c>
+      <c r="AR77">
+        <v>6</v>
+      </c>
+      <c r="AU77">
+        <v>8</v>
+      </c>
+      <c r="AX77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:50">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" t="s">
+        <v>133</v>
+      </c>
+      <c r="E78">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q37/rs121913529.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q37/rs121913529.md", "23")</f>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs121913529.md", "36")</f>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>9</v>
+      </c>
+      <c r="J78" t="s">
+        <v>163</v>
+      </c>
+      <c r="K78">
+        <v>9</v>
+      </c>
+      <c r="N78">
+        <v>9</v>
+      </c>
+      <c r="Q78">
+        <v>9</v>
+      </c>
+      <c r="T78">
+        <v>9</v>
+      </c>
+      <c r="W78">
+        <v>3</v>
+      </c>
+      <c r="Z78">
+        <v>6</v>
+      </c>
+      <c r="AC78">
+        <v>7</v>
+      </c>
+      <c r="AF78">
+        <v>1</v>
+      </c>
+      <c r="AI78">
+        <v>6</v>
+      </c>
+      <c r="AL78">
+        <v>9</v>
+      </c>
+      <c r="AO78">
+        <v>7</v>
+      </c>
+      <c r="AR78">
+        <v>6</v>
+      </c>
+      <c r="AU78">
+        <v>7</v>
+      </c>
+      <c r="AX78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:50">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" t="s">
+        <v>133</v>
+      </c>
+      <c r="E79">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q37/rs745774658.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q37/rs745774658.md", "17")</f>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs745774658.md", "42")</f>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>9</v>
+      </c>
+      <c r="J79" t="s">
+        <v>164</v>
+      </c>
+      <c r="K79">
+        <v>9</v>
+      </c>
+      <c r="N79">
+        <v>9</v>
+      </c>
+      <c r="Q79">
+        <v>9</v>
+      </c>
+      <c r="T79">
+        <v>9</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z79">
+        <v>5</v>
+      </c>
+      <c r="AC79">
+        <v>5</v>
+      </c>
+      <c r="AF79">
+        <v>1</v>
+      </c>
+      <c r="AI79">
+        <v>5</v>
+      </c>
+      <c r="AL79">
+        <v>9</v>
+      </c>
+      <c r="AO79">
+        <v>9</v>
+      </c>
+      <c r="AR79">
+        <v>7</v>
+      </c>
+      <c r="AU79">
+        <v>8</v>
+      </c>
+      <c r="AX79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:50">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" t="s">
+        <v>133</v>
+      </c>
+      <c r="E80">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q39/rs794727152.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q39/rs794727152.md", "17")</f>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794727152.md", "32")</f>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>9</v>
+      </c>
+      <c r="J80" t="s">
+        <v>165</v>
+      </c>
+      <c r="K80">
+        <v>9</v>
+      </c>
+      <c r="N80">
+        <v>9</v>
+      </c>
+      <c r="Q80">
+        <v>9</v>
+      </c>
+      <c r="T80">
+        <v>9</v>
+      </c>
+      <c r="W80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
+        <v>5</v>
+      </c>
+      <c r="AC80">
+        <v>5</v>
+      </c>
+      <c r="AF80">
+        <v>1</v>
+      </c>
+      <c r="AI80">
+        <v>5</v>
+      </c>
+      <c r="AL80">
+        <v>8</v>
+      </c>
+      <c r="AO80">
+        <v>7</v>
+      </c>
+      <c r="AR80">
+        <v>5</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
+      </c>
+      <c r="AX80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:52">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q39/rs12037987.md", "42")</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q39/rs12037987.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs12037987.md", "37")</f>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>9</v>
+      </c>
+      <c r="K81">
+        <v>9</v>
+      </c>
+      <c r="N81">
+        <v>7</v>
+      </c>
+      <c r="P81" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q81">
+        <v>8</v>
+      </c>
+      <c r="T81">
+        <v>9</v>
+      </c>
+      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <v>6</v>
+      </c>
+      <c r="AC81">
+        <v>7</v>
+      </c>
+      <c r="AF81">
+        <v>1</v>
+      </c>
+      <c r="AI81">
+        <v>6</v>
+      </c>
+      <c r="AL81">
+        <v>9</v>
+      </c>
+      <c r="AO81">
+        <v>8</v>
+      </c>
+      <c r="AR81">
+        <v>5</v>
+      </c>
+      <c r="AU81">
+        <v>7</v>
+      </c>
+      <c r="AX81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:52">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q40/rs762927460.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q40/rs762927460.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs762927460.md", "38")</f>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>9</v>
+      </c>
+      <c r="J82" t="s">
+        <v>166</v>
+      </c>
+      <c r="K82">
+        <v>9</v>
+      </c>
+      <c r="N82">
+        <v>9</v>
+      </c>
+      <c r="Q82">
+        <v>9</v>
+      </c>
+      <c r="T82">
+        <v>9</v>
+      </c>
+      <c r="W82">
+        <v>3</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z82">
+        <v>5</v>
+      </c>
+      <c r="AC82">
+        <v>5</v>
+      </c>
+      <c r="AF82">
+        <v>3</v>
+      </c>
+      <c r="AI82">
+        <v>5</v>
+      </c>
+      <c r="AL82">
+        <v>9</v>
+      </c>
+      <c r="AO82">
+        <v>8</v>
+      </c>
+      <c r="AR82">
+        <v>5</v>
+      </c>
+      <c r="AU82">
+        <v>8</v>
+      </c>
+      <c r="AX82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:52">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" t="s">
+        <v>133</v>
+      </c>
+      <c r="E83">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q41/rs1489788269.md", "38")</f>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q41/rs1489788269.md", "28")</f>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1489788269.md", "29")</f>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>7</v>
+      </c>
+      <c r="K83">
+        <v>8</v>
+      </c>
+      <c r="N83">
+        <v>8</v>
+      </c>
+      <c r="Q83">
+        <v>7</v>
+      </c>
+      <c r="T83">
+        <v>8</v>
+      </c>
+      <c r="W83">
+        <v>6</v>
+      </c>
+      <c r="Z83">
+        <v>6</v>
+      </c>
+      <c r="AC83">
+        <v>5</v>
+      </c>
+      <c r="AF83">
+        <v>5</v>
+      </c>
+      <c r="AI83">
+        <v>6</v>
+      </c>
+      <c r="AL83">
+        <v>8</v>
+      </c>
+      <c r="AO83">
+        <v>6</v>
+      </c>
+      <c r="AR83">
+        <v>2</v>
+      </c>
+      <c r="AU83">
+        <v>7</v>
+      </c>
+      <c r="AX83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:52">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q41/rs745774658.md", "30")</f>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q41/rs745774658.md", "27")</f>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs745774658.md", "27")</f>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>7</v>
+      </c>
+      <c r="K84">
+        <v>7</v>
+      </c>
+      <c r="N84">
+        <v>4</v>
+      </c>
+      <c r="Q84">
+        <v>5</v>
+      </c>
+      <c r="T84">
+        <v>7</v>
+      </c>
+      <c r="W84">
+        <v>6</v>
+      </c>
+      <c r="Z84">
+        <v>6</v>
+      </c>
+      <c r="AC84">
+        <v>4</v>
+      </c>
+      <c r="AF84">
+        <v>5</v>
+      </c>
+      <c r="AI84">
+        <v>6</v>
+      </c>
+      <c r="AL84">
+        <v>8</v>
+      </c>
+      <c r="AO84">
+        <v>6</v>
+      </c>
+      <c r="AR84">
+        <v>2</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AX84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:52">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" t="s">
+        <v>133</v>
+      </c>
+      <c r="E85">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q41/rs796053216.md", "33")</f>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q41/rs796053216.md", "23")</f>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053216.md", "26")</f>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>8</v>
+      </c>
+      <c r="K85">
+        <v>7</v>
+      </c>
+      <c r="N85">
+        <v>5</v>
+      </c>
+      <c r="P85" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q85">
+        <v>6</v>
+      </c>
+      <c r="T85">
+        <v>7</v>
+      </c>
+      <c r="W85">
+        <v>2</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z85">
+        <v>7</v>
+      </c>
+      <c r="AC85">
+        <v>5</v>
+      </c>
+      <c r="AF85">
+        <v>2</v>
+      </c>
+      <c r="AI85">
+        <v>7</v>
+      </c>
+      <c r="AL85">
+        <v>8</v>
+      </c>
+      <c r="AO85">
+        <v>6</v>
+      </c>
+      <c r="AR85">
+        <v>1</v>
+      </c>
+      <c r="AT85" t="s">
+        <v>237</v>
+      </c>
+      <c r="AU85">
+        <v>5</v>
+      </c>
+      <c r="AX85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:52">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q41/rs121913529.md", "26")</f>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q41/rs121913529.md", "20")</f>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs121913529.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+      <c r="K86">
+        <v>6</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="P86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="T86">
+        <v>6</v>
+      </c>
+      <c r="W86">
+        <v>2</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z86">
+        <v>6</v>
+      </c>
+      <c r="AC86">
+        <v>2</v>
+      </c>
+      <c r="AF86">
+        <v>4</v>
+      </c>
+      <c r="AI86">
+        <v>6</v>
+      </c>
+      <c r="AL86">
+        <v>7</v>
+      </c>
+      <c r="AO86">
+        <v>5</v>
+      </c>
+      <c r="AR86">
+        <v>1</v>
+      </c>
+      <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AX86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:52">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q42/rs121913529.md", "29")</f>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q42/rs121913529.md", "22")</f>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs121913529.md", "25")</f>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>8</v>
+      </c>
+      <c r="K87">
+        <v>7</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="P87" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q87">
+        <v>5</v>
+      </c>
+      <c r="T87">
+        <v>7</v>
+      </c>
+      <c r="W87">
+        <v>1</v>
+      </c>
+      <c r="Z87">
+        <v>7</v>
+      </c>
+      <c r="AC87">
+        <v>2</v>
+      </c>
+      <c r="AF87">
+        <v>5</v>
+      </c>
+      <c r="AI87">
+        <v>7</v>
+      </c>
+      <c r="AL87">
+        <v>7</v>
+      </c>
+      <c r="AO87">
+        <v>6</v>
+      </c>
+      <c r="AR87">
+        <v>1</v>
+      </c>
+      <c r="AU87">
+        <v>5</v>
+      </c>
+      <c r="AX87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:52">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q43/rs121913529.md", "31")</f>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q43/rs121913529.md", "25")</f>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs121913529.md", "23")</f>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>8</v>
+      </c>
+      <c r="K88">
+        <v>8</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="P88" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q88">
+        <v>5</v>
+      </c>
+      <c r="T88">
+        <v>8</v>
+      </c>
+      <c r="W88">
+        <v>2</v>
+      </c>
+      <c r="Z88">
+        <v>8</v>
+      </c>
+      <c r="AC88">
+        <v>2</v>
+      </c>
+      <c r="AF88">
+        <v>5</v>
+      </c>
+      <c r="AI88">
+        <v>8</v>
+      </c>
+      <c r="AL88">
+        <v>7</v>
+      </c>
+      <c r="AO88">
+        <v>5</v>
+      </c>
+      <c r="AR88">
+        <v>1</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:52">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q43/rs880315.md", "30")</f>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q43/rs880315.md", "25")</f>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs880315.md", "23")</f>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>7</v>
+      </c>
+      <c r="K89">
+        <v>8</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="P89" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q89">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>8</v>
+      </c>
+      <c r="W89">
+        <v>2</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z89">
+        <v>8</v>
+      </c>
+      <c r="AC89">
+        <v>2</v>
+      </c>
+      <c r="AF89">
+        <v>5</v>
+      </c>
+      <c r="AI89">
+        <v>8</v>
+      </c>
+      <c r="AL89">
+        <v>7</v>
+      </c>
+      <c r="AO89">
+        <v>5</v>
+      </c>
+      <c r="AR89">
+        <v>1</v>
+      </c>
+      <c r="AT89" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:52">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q44/rs796053166.md", "25")</f>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q44/rs796053166.md", "17")</f>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053166.md", "24")</f>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>7</v>
+      </c>
+      <c r="K90">
+        <v>5</v>
+      </c>
+      <c r="N90">
+        <v>5</v>
+      </c>
+      <c r="Q90">
+        <v>5</v>
+      </c>
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="V90" t="s">
+        <v>195</v>
+      </c>
+      <c r="W90">
+        <v>1</v>
+      </c>
+      <c r="Z90">
+        <v>5</v>
+      </c>
+      <c r="AC90">
+        <v>5</v>
+      </c>
+      <c r="AF90">
+        <v>1</v>
+      </c>
+      <c r="AI90">
+        <v>5</v>
+      </c>
+      <c r="AL90">
+        <v>8</v>
+      </c>
+      <c r="AO90">
+        <v>5</v>
+      </c>
+      <c r="AR90">
+        <v>1</v>
+      </c>
+      <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AX90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:52">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91" t="s">
+        <v>133</v>
+      </c>
+      <c r="E91">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q45/rs80356821.md", "25")</f>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q45/rs80356821.md", "11")</f>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs80356821.md", "23")</f>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>8</v>
+      </c>
+      <c r="K91">
+        <v>6</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="Q91">
+        <v>7</v>
+      </c>
+      <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="V91" t="s">
+        <v>196</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z91">
+        <v>4</v>
+      </c>
+      <c r="AC91">
+        <v>2</v>
+      </c>
+      <c r="AF91">
+        <v>1</v>
+      </c>
+      <c r="AI91">
+        <v>4</v>
+      </c>
+      <c r="AL91">
+        <v>6</v>
+      </c>
+      <c r="AO91">
+        <v>6</v>
+      </c>
+      <c r="AR91">
+        <v>1</v>
+      </c>
+      <c r="AU91">
+        <v>6</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:52">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q45/rs1170153450.md", "27")</f>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q45/rs1170153450.md", "15")</f>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1170153450.md", "23")</f>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>8</v>
+      </c>
+      <c r="K92">
+        <v>5</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="P92" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q92">
+        <v>7</v>
+      </c>
+      <c r="T92">
+        <v>5</v>
+      </c>
+      <c r="W92">
+        <v>1</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z92">
+        <v>5</v>
+      </c>
+      <c r="AC92">
+        <v>2</v>
+      </c>
+      <c r="AF92">
+        <v>2</v>
+      </c>
+      <c r="AI92">
+        <v>5</v>
+      </c>
+      <c r="AL92">
+        <v>7</v>
+      </c>
+      <c r="AO92">
+        <v>6</v>
+      </c>
+      <c r="AR92">
+        <v>1</v>
+      </c>
+      <c r="AU92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>3</v>
+      </c>
+      <c r="AZ92" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:52">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" t="s">
+        <v>133</v>
+      </c>
+      <c r="E93">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q46/rs796053229.md", "24")</f>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q46/rs796053229.md", "15")</f>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053229.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>7</v>
+      </c>
+      <c r="K93">
+        <v>5</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="P93" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q93">
+        <v>5</v>
+      </c>
+      <c r="T93">
+        <v>5</v>
+      </c>
+      <c r="W93">
+        <v>1</v>
+      </c>
+      <c r="Z93">
+        <v>5</v>
+      </c>
+      <c r="AC93">
+        <v>2</v>
+      </c>
+      <c r="AF93">
+        <v>4</v>
+      </c>
+      <c r="AI93">
+        <v>3</v>
+      </c>
+      <c r="AL93">
+        <v>7</v>
+      </c>
+      <c r="AO93">
+        <v>5</v>
+      </c>
+      <c r="AR93">
+        <v>2</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:52">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q46/rs876660744.md", "27")</f>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q46/rs876660744.md", "17")</f>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs876660744.md", "22")</f>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>7</v>
+      </c>
+      <c r="K94">
+        <v>7</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="Q94">
+        <v>7</v>
+      </c>
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>6</v>
+      </c>
+      <c r="AC94">
+        <v>2</v>
+      </c>
+      <c r="AF94">
+        <v>6</v>
+      </c>
+      <c r="AI94">
+        <v>2</v>
+      </c>
+      <c r="AL94">
+        <v>7</v>
+      </c>
+      <c r="AO94">
+        <v>6</v>
+      </c>
+      <c r="AR94">
+        <v>1</v>
+      </c>
+      <c r="AU94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:52">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q48/rs880315.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q48/rs880315.md", "40")</f>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs880315.md", "32")</f>
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>9</v>
+      </c>
+      <c r="K95">
+        <v>9</v>
+      </c>
+      <c r="N95">
+        <v>9</v>
+      </c>
+      <c r="Q95">
+        <v>9</v>
+      </c>
+      <c r="T95">
+        <v>9</v>
+      </c>
+      <c r="W95">
+        <v>8</v>
+      </c>
+      <c r="Z95">
+        <v>8</v>
+      </c>
+      <c r="AC95">
+        <v>8</v>
+      </c>
+      <c r="AF95">
+        <v>8</v>
+      </c>
+      <c r="AI95">
+        <v>8</v>
+      </c>
+      <c r="AL95">
+        <v>8</v>
+      </c>
+      <c r="AO95">
+        <v>8</v>
+      </c>
+      <c r="AR95">
+        <v>4</v>
+      </c>
+      <c r="AU95">
+        <v>8</v>
+      </c>
+      <c r="AX95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:52">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q49/rs794726784.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q49/rs794726784.md", "17")</f>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794726784.md", "22")</f>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>10</v>
+      </c>
+      <c r="J96" t="s">
+        <v>167</v>
+      </c>
+      <c r="K96">
+        <v>10</v>
+      </c>
+      <c r="N96">
+        <v>10</v>
+      </c>
+      <c r="Q96">
+        <v>10</v>
+      </c>
+      <c r="T96">
+        <v>10</v>
+      </c>
+      <c r="W96">
+        <v>2</v>
+      </c>
+      <c r="Z96">
+        <v>5</v>
+      </c>
+      <c r="AC96">
+        <v>2</v>
+      </c>
+      <c r="AF96">
+        <v>5</v>
+      </c>
+      <c r="AI96">
+        <v>3</v>
+      </c>
+      <c r="AL96">
+        <v>8</v>
+      </c>
+      <c r="AO96">
+        <v>5</v>
+      </c>
+      <c r="AR96">
+        <v>2</v>
+      </c>
+      <c r="AU96">
+        <v>5</v>
+      </c>
+      <c r="AX96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:50">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" t="s">
+        <v>133</v>
+      </c>
+      <c r="E97">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q49/rs727504136.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q49/rs727504136.md", "16")</f>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs727504136.md", "24")</f>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>10</v>
+      </c>
+      <c r="K97">
+        <v>10</v>
+      </c>
+      <c r="N97">
+        <v>10</v>
+      </c>
+      <c r="Q97">
+        <v>10</v>
+      </c>
+      <c r="T97">
+        <v>10</v>
+      </c>
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="Z97">
+        <v>5</v>
+      </c>
+      <c r="AC97">
+        <v>2</v>
+      </c>
+      <c r="AF97">
+        <v>5</v>
+      </c>
+      <c r="AI97">
+        <v>3</v>
+      </c>
+      <c r="AL97">
+        <v>8</v>
+      </c>
+      <c r="AO97">
+        <v>6</v>
+      </c>
+      <c r="AR97">
+        <v>2</v>
+      </c>
+      <c r="AU97">
+        <v>5</v>
+      </c>
+      <c r="AX97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:50">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
+        <v>122</v>
+      </c>
+      <c r="D98" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q50/rs34637584.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q50/rs34637584.md", "34")</f>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs34637584.md", "23")</f>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>10</v>
+      </c>
+      <c r="J98" t="s">
+        <v>168</v>
+      </c>
+      <c r="K98">
+        <v>10</v>
+      </c>
+      <c r="N98">
+        <v>10</v>
+      </c>
+      <c r="Q98">
+        <v>10</v>
+      </c>
+      <c r="T98">
+        <v>10</v>
+      </c>
+      <c r="W98">
+        <v>8</v>
+      </c>
+      <c r="Z98">
+        <v>8</v>
+      </c>
+      <c r="AC98">
+        <v>6</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF98">
+        <v>6</v>
+      </c>
+      <c r="AI98">
+        <v>6</v>
+      </c>
+      <c r="AL98">
+        <v>7</v>
+      </c>
+      <c r="AO98">
+        <v>6</v>
+      </c>
+      <c r="AR98">
+        <v>2</v>
+      </c>
+      <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AX98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:50">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q50/rs880315.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q50/rs880315.md", "28")</f>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs880315.md", "23")</f>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>10</v>
+      </c>
+      <c r="K99">
+        <v>10</v>
+      </c>
+      <c r="N99">
+        <v>10</v>
+      </c>
+      <c r="Q99">
+        <v>10</v>
+      </c>
+      <c r="T99">
+        <v>10</v>
+      </c>
+      <c r="W99">
+        <v>1</v>
+      </c>
+      <c r="Z99">
+        <v>7</v>
+      </c>
+      <c r="AC99">
+        <v>7</v>
+      </c>
+      <c r="AF99">
+        <v>7</v>
+      </c>
+      <c r="AI99">
+        <v>6</v>
+      </c>
+      <c r="AL99">
+        <v>7</v>
+      </c>
+      <c r="AO99">
+        <v>5</v>
+      </c>
+      <c r="AR99">
+        <v>2</v>
+      </c>
+      <c r="AU99">
+        <v>7</v>
+      </c>
+      <c r="AX99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:50">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q50/rs704341.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q50/rs704341.md", "33")</f>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs704341.md", "25")</f>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>10</v>
+      </c>
+      <c r="K100">
+        <v>10</v>
+      </c>
+      <c r="N100">
+        <v>10</v>
+      </c>
+      <c r="Q100">
+        <v>10</v>
+      </c>
+      <c r="T100">
+        <v>10</v>
+      </c>
+      <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="Z100">
+        <v>8</v>
+      </c>
+      <c r="AC100">
+        <v>8</v>
+      </c>
+      <c r="AF100">
+        <v>8</v>
+      </c>
+      <c r="AI100">
+        <v>8</v>
+      </c>
+      <c r="AL100">
+        <v>7</v>
+      </c>
+      <c r="AO100">
+        <v>8</v>
+      </c>
+      <c r="AR100">
+        <v>1</v>
+      </c>
+      <c r="AU100">
+        <v>8</v>
+      </c>
+      <c r="AX100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:50">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" t="s">
+        <v>133</v>
+      </c>
+      <c r="E101">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q50/rs571414497.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q50/rs571414497.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs571414497.md", "25")</f>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>10</v>
+      </c>
+      <c r="K101">
+        <v>10</v>
+      </c>
+      <c r="N101">
+        <v>10</v>
+      </c>
+      <c r="Q101">
+        <v>10</v>
+      </c>
+      <c r="T101">
+        <v>10</v>
+      </c>
+      <c r="W101">
+        <v>9</v>
+      </c>
+      <c r="Z101">
+        <v>9</v>
+      </c>
+      <c r="AC101">
+        <v>9</v>
+      </c>
+      <c r="AF101">
+        <v>9</v>
+      </c>
+      <c r="AI101">
+        <v>9</v>
+      </c>
+      <c r="AL101">
+        <v>8</v>
+      </c>
+      <c r="AO101">
+        <v>7</v>
+      </c>
+      <c r="AR101">
+        <v>1</v>
+      </c>
+      <c r="AU101">
+        <v>7</v>
+      </c>
+      <c r="AX101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:50">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q1/rs880315.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q1/rs880315.md", "22")</f>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs880315.md", "40")</f>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>9</v>
+      </c>
+      <c r="K102">
+        <v>9</v>
+      </c>
+      <c r="N102">
+        <v>9</v>
+      </c>
+      <c r="Q102">
+        <v>9</v>
+      </c>
+      <c r="T102">
+        <v>9</v>
+      </c>
+      <c r="W102">
+        <v>1</v>
+      </c>
+      <c r="Z102">
+        <v>7</v>
+      </c>
+      <c r="AC102">
+        <v>8</v>
+      </c>
+      <c r="AF102">
+        <v>1</v>
+      </c>
+      <c r="AI102">
+        <v>5</v>
+      </c>
+      <c r="AL102">
+        <v>8</v>
+      </c>
+      <c r="AO102">
+        <v>8</v>
+      </c>
+      <c r="AR102">
+        <v>8</v>
+      </c>
+      <c r="AU102">
+        <v>8</v>
+      </c>
+      <c r="AX102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:50">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q2/rs796052984.md", "29")</f>
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q2/rs796052984.md", "14")</f>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796052984.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="J103" t="s">
+        <v>169</v>
+      </c>
+      <c r="K103">
+        <v>7</v>
+      </c>
+      <c r="N103">
+        <v>5</v>
+      </c>
+      <c r="Q103">
+        <v>5</v>
+      </c>
+      <c r="T103">
+        <v>7</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z103">
+        <v>5</v>
+      </c>
+      <c r="AC103">
+        <v>5</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>4</v>
+      </c>
+      <c r="AL103">
+        <v>5</v>
+      </c>
+      <c r="AO103">
+        <v>5</v>
+      </c>
+      <c r="AR103">
+        <v>1</v>
+      </c>
+      <c r="AU103">
+        <v>5</v>
+      </c>
+      <c r="AX103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:50">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q3/rs34637584.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q3/rs34637584.md", "11")</f>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs34637584.md", "48")</f>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>10</v>
+      </c>
+      <c r="K104">
+        <v>10</v>
+      </c>
+      <c r="N104">
+        <v>10</v>
+      </c>
+      <c r="Q104">
+        <v>10</v>
+      </c>
+      <c r="T104">
+        <v>10</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>5</v>
+      </c>
+      <c r="AC104">
+        <v>3</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>3</v>
+      </c>
+      <c r="AL104">
+        <v>10</v>
+      </c>
+      <c r="AO104">
+        <v>10</v>
+      </c>
+      <c r="AR104">
+        <v>8</v>
+      </c>
+      <c r="AU104">
+        <v>10</v>
+      </c>
+      <c r="AX104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:50">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q4/rs80356821.md", "35")</f>
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q4/rs80356821.md", "11")</f>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs80356821.md", "25")</f>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>7</v>
+      </c>
+      <c r="J105" t="s">
+        <v>170</v>
+      </c>
+      <c r="K105">
+        <v>7</v>
+      </c>
+      <c r="N105">
+        <v>7</v>
+      </c>
+      <c r="Q105">
+        <v>7</v>
+      </c>
+      <c r="T105">
+        <v>7</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>4</v>
+      </c>
+      <c r="AC105">
+        <v>4</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>3</v>
+      </c>
+      <c r="AL105">
+        <v>5</v>
+      </c>
+      <c r="AO105">
+        <v>5</v>
+      </c>
+      <c r="AR105">
+        <v>5</v>
+      </c>
+      <c r="AU105">
+        <v>5</v>
+      </c>
+      <c r="AX105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:50">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q5/rs886042528.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q5/rs886042528.md", "5")</f>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs886042528.md", "20")</f>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>10</v>
+      </c>
+      <c r="K106">
+        <v>10</v>
+      </c>
+      <c r="N106">
+        <v>10</v>
+      </c>
+      <c r="Q106">
+        <v>10</v>
+      </c>
+      <c r="T106">
+        <v>10</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>3</v>
+      </c>
+      <c r="AC106">
+        <v>1</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>1</v>
+      </c>
+      <c r="AL106">
+        <v>5</v>
+      </c>
+      <c r="AO106">
+        <v>5</v>
+      </c>
+      <c r="AR106">
+        <v>1</v>
+      </c>
+      <c r="AU106">
+        <v>5</v>
+      </c>
+      <c r="AX106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:50">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q6/rs763684724.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q6/rs763684724.md", "15")</f>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs763684724.md", "28")</f>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>10</v>
+      </c>
+      <c r="K107">
+        <v>10</v>
+      </c>
+      <c r="N107">
+        <v>10</v>
+      </c>
+      <c r="Q107">
+        <v>10</v>
+      </c>
+      <c r="T107">
+        <v>10</v>
+      </c>
+      <c r="W107">
+        <v>2</v>
+      </c>
+      <c r="Z107">
+        <v>5</v>
+      </c>
+      <c r="AC107">
+        <v>1</v>
+      </c>
+      <c r="AF107">
+        <v>2</v>
+      </c>
+      <c r="AI107">
+        <v>5</v>
+      </c>
+      <c r="AL107">
+        <v>7</v>
+      </c>
+      <c r="AO107">
+        <v>7</v>
+      </c>
+      <c r="AR107">
+        <v>2</v>
+      </c>
+      <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AX107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:50">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" t="s">
+        <v>105</v>
+      </c>
+      <c r="D108" t="s">
+        <v>133</v>
+      </c>
+      <c r="E108">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q7/rs571414497.md", "48")</f>
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q7/rs571414497.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs571414497.md", "43")</f>
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>10</v>
+      </c>
+      <c r="K108">
+        <v>10</v>
+      </c>
+      <c r="N108">
+        <v>9</v>
+      </c>
+      <c r="Q108">
+        <v>9</v>
+      </c>
+      <c r="T108">
+        <v>10</v>
+      </c>
+      <c r="W108">
+        <v>1</v>
+      </c>
+      <c r="Z108">
+        <v>7</v>
+      </c>
+      <c r="AC108">
+        <v>7</v>
+      </c>
+      <c r="AF108">
+        <v>1</v>
+      </c>
+      <c r="AI108">
+        <v>5</v>
+      </c>
+      <c r="AL108">
+        <v>9</v>
+      </c>
+      <c r="AO108">
+        <v>9</v>
+      </c>
+      <c r="AR108">
+        <v>7</v>
+      </c>
+      <c r="AU108">
+        <v>9</v>
+      </c>
+      <c r="AX108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:50">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q8/rs1057519999.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q8/rs1057519999.md", "35")</f>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1057519999.md", "33")</f>
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>9</v>
+      </c>
+      <c r="K109">
+        <v>9</v>
+      </c>
+      <c r="N109">
+        <v>9</v>
+      </c>
+      <c r="Q109">
+        <v>9</v>
+      </c>
+      <c r="T109">
+        <v>9</v>
+      </c>
+      <c r="W109">
+        <v>8</v>
+      </c>
+      <c r="Z109">
+        <v>9</v>
+      </c>
+      <c r="AC109">
+        <v>5</v>
+      </c>
+      <c r="AF109">
+        <v>5</v>
+      </c>
+      <c r="AI109">
+        <v>8</v>
+      </c>
+      <c r="AL109">
+        <v>8</v>
+      </c>
+      <c r="AO109">
+        <v>8</v>
+      </c>
+      <c r="AR109">
+        <v>2</v>
+      </c>
+      <c r="AU109">
+        <v>8</v>
+      </c>
+      <c r="AX109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:50">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" t="s">
+        <v>122</v>
+      </c>
+      <c r="D110" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q9/rs34637584.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q9/rs34637584.md", "14")</f>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs34637584.md", "30")</f>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>10</v>
+      </c>
+      <c r="K110">
+        <v>10</v>
+      </c>
+      <c r="N110">
+        <v>10</v>
+      </c>
+      <c r="Q110">
+        <v>10</v>
+      </c>
+      <c r="T110">
+        <v>10</v>
+      </c>
+      <c r="W110">
+        <v>1</v>
+      </c>
+      <c r="Z110">
+        <v>5</v>
+      </c>
+      <c r="AC110">
+        <v>2</v>
+      </c>
+      <c r="AF110">
+        <v>1</v>
+      </c>
+      <c r="AI110">
+        <v>5</v>
+      </c>
+      <c r="AL110">
+        <v>8</v>
+      </c>
+      <c r="AO110">
+        <v>6</v>
+      </c>
+      <c r="AR110">
+        <v>2</v>
+      </c>
+      <c r="AU110">
+        <v>8</v>
+      </c>
+      <c r="AX110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:50">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" t="s">
+        <v>127</v>
+      </c>
+      <c r="D111" t="s">
+        <v>133</v>
+      </c>
+      <c r="E111">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q10/rs1170153450.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q10/rs1170153450.md", "13")</f>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1170153450.md", "31")</f>
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>10</v>
+      </c>
+      <c r="K111">
+        <v>10</v>
+      </c>
+      <c r="N111">
+        <v>10</v>
+      </c>
+      <c r="Q111">
+        <v>10</v>
+      </c>
+      <c r="T111">
+        <v>10</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z111">
+        <v>5</v>
+      </c>
+      <c r="AC111">
+        <v>3</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>5</v>
+      </c>
+      <c r="AL111">
+        <v>8</v>
+      </c>
+      <c r="AO111">
+        <v>7</v>
+      </c>
+      <c r="AR111">
+        <v>2</v>
+      </c>
+      <c r="AU111">
+        <v>8</v>
+      </c>
+      <c r="AX111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:50">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q11/rs886042528.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q11/rs886042528.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs886042528.md", "35")</f>
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>9</v>
+      </c>
+      <c r="K112">
+        <v>9</v>
+      </c>
+      <c r="N112">
+        <v>9</v>
+      </c>
+      <c r="Q112">
+        <v>9</v>
+      </c>
+      <c r="T112">
+        <v>9</v>
+      </c>
+      <c r="W112">
+        <v>9</v>
+      </c>
+      <c r="Z112">
+        <v>9</v>
+      </c>
+      <c r="AC112">
+        <v>9</v>
+      </c>
+      <c r="AF112">
+        <v>9</v>
+      </c>
+      <c r="AI112">
+        <v>9</v>
+      </c>
+      <c r="AL112">
+        <v>8</v>
+      </c>
+      <c r="AO112">
+        <v>8</v>
+      </c>
+      <c r="AR112">
+        <v>5</v>
+      </c>
+      <c r="AU112">
+        <v>8</v>
+      </c>
+      <c r="AX112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:50">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q12/rs794726784.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q12/rs794726784.md", "27")</f>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794726784.md", "35")</f>
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>9</v>
+      </c>
+      <c r="K113">
+        <v>9</v>
+      </c>
+      <c r="N113">
+        <v>9</v>
+      </c>
+      <c r="Q113">
+        <v>9</v>
+      </c>
+      <c r="T113">
+        <v>9</v>
+      </c>
+      <c r="W113">
+        <v>1</v>
+      </c>
+      <c r="Z113">
+        <v>9</v>
+      </c>
+      <c r="AC113">
+        <v>9</v>
+      </c>
+      <c r="AF113">
+        <v>1</v>
+      </c>
+      <c r="AI113">
+        <v>7</v>
+      </c>
+      <c r="AL113">
+        <v>8</v>
+      </c>
+      <c r="AO113">
+        <v>8</v>
+      </c>
+      <c r="AR113">
+        <v>5</v>
+      </c>
+      <c r="AU113">
+        <v>8</v>
+      </c>
+      <c r="AX113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:50">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" t="s">
+        <v>133</v>
+      </c>
+      <c r="E114">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q13/rs431905511.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q13/rs431905511.md", "44")</f>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs431905511.md", "35")</f>
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>9</v>
+      </c>
+      <c r="K114">
+        <v>9</v>
+      </c>
+      <c r="N114">
+        <v>9</v>
+      </c>
+      <c r="Q114">
+        <v>9</v>
+      </c>
+      <c r="T114">
+        <v>9</v>
+      </c>
+      <c r="W114">
+        <v>9</v>
+      </c>
+      <c r="Z114">
+        <v>9</v>
+      </c>
+      <c r="AC114">
+        <v>9</v>
+      </c>
+      <c r="AF114">
+        <v>8</v>
+      </c>
+      <c r="AI114">
+        <v>9</v>
+      </c>
+      <c r="AL114">
+        <v>8</v>
+      </c>
+      <c r="AO114">
+        <v>8</v>
+      </c>
+      <c r="AR114">
+        <v>5</v>
+      </c>
+      <c r="AU114">
+        <v>8</v>
+      </c>
+      <c r="AX114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:50">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" t="s">
+        <v>110</v>
+      </c>
+      <c r="D115" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q14/rs745774658.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q14/rs745774658.md", "24")</f>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs745774658.md", "27")</f>
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>10</v>
+      </c>
+      <c r="K115">
+        <v>10</v>
+      </c>
+      <c r="N115">
+        <v>10</v>
+      </c>
+      <c r="Q115">
+        <v>10</v>
+      </c>
+      <c r="T115">
+        <v>10</v>
+      </c>
+      <c r="W115">
+        <v>1</v>
+      </c>
+      <c r="Z115">
+        <v>8</v>
+      </c>
+      <c r="AC115">
+        <v>8</v>
+      </c>
+      <c r="AF115">
+        <v>1</v>
+      </c>
+      <c r="AI115">
+        <v>6</v>
+      </c>
+      <c r="AL115">
+        <v>8</v>
+      </c>
+      <c r="AO115">
+        <v>7</v>
+      </c>
+      <c r="AR115">
+        <v>2</v>
+      </c>
+      <c r="AU115">
+        <v>7</v>
+      </c>
+      <c r="AX115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:50">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" t="s">
+        <v>133</v>
+      </c>
+      <c r="E116">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q15/rs1489788269.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q15/rs1489788269.md", "18")</f>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1489788269.md", "30")</f>
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>10</v>
+      </c>
+      <c r="J116" t="s">
+        <v>171</v>
+      </c>
+      <c r="K116">
+        <v>10</v>
+      </c>
+      <c r="N116">
+        <v>10</v>
+      </c>
+      <c r="Q116">
+        <v>10</v>
+      </c>
+      <c r="T116">
+        <v>10</v>
+      </c>
+      <c r="W116">
+        <v>1</v>
+      </c>
+      <c r="Z116">
+        <v>6</v>
+      </c>
+      <c r="AC116">
+        <v>5</v>
+      </c>
+      <c r="AF116">
+        <v>1</v>
+      </c>
+      <c r="AI116">
+        <v>5</v>
+      </c>
+      <c r="AL116">
+        <v>8</v>
+      </c>
+      <c r="AO116">
+        <v>8</v>
+      </c>
+      <c r="AR116">
+        <v>2</v>
+      </c>
+      <c r="AU116">
+        <v>8</v>
+      </c>
+      <c r="AX116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:50">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" t="s">
+        <v>104</v>
+      </c>
+      <c r="D117" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q16/rs12037987.md", "36")</f>
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q16/rs12037987.md", "23")</f>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs12037987.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>8</v>
+      </c>
+      <c r="K117">
+        <v>8</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="P117" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q117">
+        <v>7</v>
+      </c>
+      <c r="T117">
+        <v>8</v>
+      </c>
+      <c r="W117">
+        <v>1</v>
+      </c>
+      <c r="Z117">
+        <v>8</v>
+      </c>
+      <c r="AC117">
+        <v>6</v>
+      </c>
+      <c r="AF117">
+        <v>1</v>
+      </c>
+      <c r="AI117">
+        <v>7</v>
+      </c>
+      <c r="AL117">
+        <v>9</v>
+      </c>
+      <c r="AO117">
+        <v>9</v>
+      </c>
+      <c r="AR117">
+        <v>9</v>
+      </c>
+      <c r="AU117">
+        <v>9</v>
+      </c>
+      <c r="AX117">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:50">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118" t="s">
+        <v>115</v>
+      </c>
+      <c r="D118" t="s">
+        <v>133</v>
+      </c>
+      <c r="E118">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q17/rs763684724.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q17/rs763684724.md", "19")</f>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs763684724.md", "34")</f>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>10</v>
+      </c>
+      <c r="K118">
+        <v>10</v>
+      </c>
+      <c r="N118">
+        <v>10</v>
+      </c>
+      <c r="Q118">
+        <v>10</v>
+      </c>
+      <c r="T118">
+        <v>10</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>7</v>
+      </c>
+      <c r="AC118">
+        <v>6</v>
+      </c>
+      <c r="AF118">
+        <v>1</v>
+      </c>
+      <c r="AI118">
+        <v>5</v>
+      </c>
+      <c r="AL118">
+        <v>8</v>
+      </c>
+      <c r="AO118">
+        <v>8</v>
+      </c>
+      <c r="AR118">
+        <v>5</v>
+      </c>
+      <c r="AU118">
+        <v>8</v>
+      </c>
+      <c r="AX118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:50">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119" t="s">
+        <v>133</v>
+      </c>
+      <c r="E119">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q18/rs794726784.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q18/rs794726784.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794726784.md", "35")</f>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>9</v>
+      </c>
+      <c r="K119">
+        <v>9</v>
+      </c>
+      <c r="N119">
+        <v>9</v>
+      </c>
+      <c r="Q119">
+        <v>9</v>
+      </c>
+      <c r="T119">
+        <v>9</v>
+      </c>
+      <c r="W119">
+        <v>1</v>
+      </c>
+      <c r="Z119">
+        <v>7</v>
+      </c>
+      <c r="AC119">
+        <v>7</v>
+      </c>
+      <c r="AF119">
+        <v>1</v>
+      </c>
+      <c r="AI119">
+        <v>5</v>
+      </c>
+      <c r="AL119">
+        <v>8</v>
+      </c>
+      <c r="AO119">
+        <v>8</v>
+      </c>
+      <c r="AR119">
+        <v>5</v>
+      </c>
+      <c r="AU119">
+        <v>8</v>
+      </c>
+      <c r="AX119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:50">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" t="s">
+        <v>106</v>
+      </c>
+      <c r="D120" t="s">
+        <v>133</v>
+      </c>
+      <c r="E120">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q19/rs80356821.md", "43")</f>
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q19/rs80356821.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs80356821.md", "35")</f>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>9</v>
+      </c>
+      <c r="K120">
+        <v>9</v>
+      </c>
+      <c r="N120">
+        <v>7</v>
+      </c>
+      <c r="Q120">
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <v>9</v>
+      </c>
+      <c r="W120">
+        <v>1</v>
+      </c>
+      <c r="Z120">
+        <v>7</v>
+      </c>
+      <c r="AC120">
+        <v>7</v>
+      </c>
+      <c r="AF120">
+        <v>1</v>
+      </c>
+      <c r="AI120">
+        <v>5</v>
+      </c>
+      <c r="AL120">
+        <v>8</v>
+      </c>
+      <c r="AO120">
+        <v>8</v>
+      </c>
+      <c r="AR120">
+        <v>5</v>
+      </c>
+      <c r="AU120">
+        <v>8</v>
+      </c>
+      <c r="AX120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:50">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" t="s">
+        <v>120</v>
+      </c>
+      <c r="D121" t="s">
+        <v>133</v>
+      </c>
+      <c r="E121">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q20/rs794727152.md", "40")</f>
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q20/rs794727152.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794727152.md", "29")</f>
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>8</v>
+      </c>
+      <c r="K121">
+        <v>8</v>
+      </c>
+      <c r="N121">
+        <v>8</v>
+      </c>
+      <c r="Q121">
+        <v>8</v>
+      </c>
+      <c r="T121">
+        <v>8</v>
+      </c>
+      <c r="W121">
+        <v>1</v>
+      </c>
+      <c r="Z121">
+        <v>7</v>
+      </c>
+      <c r="AC121">
+        <v>7</v>
+      </c>
+      <c r="AF121">
+        <v>1</v>
+      </c>
+      <c r="AI121">
+        <v>5</v>
+      </c>
+      <c r="AL121">
+        <v>8</v>
+      </c>
+      <c r="AO121">
+        <v>7</v>
+      </c>
+      <c r="AR121">
+        <v>2</v>
+      </c>
+      <c r="AU121">
+        <v>7</v>
+      </c>
+      <c r="AX121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:50">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" t="s">
+        <v>115</v>
+      </c>
+      <c r="D122" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q21/rs763684724.md", "43")</f>
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q21/rs763684724.md", "36")</f>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs763684724.md", "34")</f>
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>8</v>
+      </c>
+      <c r="K122">
+        <v>9</v>
+      </c>
+      <c r="N122">
+        <v>9</v>
+      </c>
+      <c r="Q122">
+        <v>8</v>
+      </c>
+      <c r="T122">
+        <v>9</v>
+      </c>
+      <c r="W122">
+        <v>8</v>
+      </c>
+      <c r="Z122">
+        <v>8</v>
+      </c>
+      <c r="AC122">
+        <v>5</v>
+      </c>
+      <c r="AF122">
+        <v>8</v>
+      </c>
+      <c r="AI122">
+        <v>7</v>
+      </c>
+      <c r="AL122">
+        <v>8</v>
+      </c>
+      <c r="AO122">
+        <v>8</v>
+      </c>
+      <c r="AR122">
+        <v>4</v>
+      </c>
+      <c r="AU122">
+        <v>8</v>
+      </c>
+      <c r="AX122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:50">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" t="s">
+        <v>103</v>
+      </c>
+      <c r="D123" t="s">
+        <v>132</v>
+      </c>
+      <c r="E123">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q22/rs762927460.md", "40")</f>
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q22/rs762927460.md", "23")</f>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs762927460.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>8</v>
+      </c>
+      <c r="J123" t="s">
+        <v>172</v>
+      </c>
+      <c r="K123">
+        <v>8</v>
+      </c>
+      <c r="N123">
+        <v>8</v>
+      </c>
+      <c r="Q123">
+        <v>8</v>
+      </c>
+      <c r="T123">
+        <v>8</v>
+      </c>
+      <c r="W123">
+        <v>1</v>
+      </c>
+      <c r="Z123">
+        <v>8</v>
+      </c>
+      <c r="AC123">
+        <v>7</v>
+      </c>
+      <c r="AF123">
+        <v>1</v>
+      </c>
+      <c r="AI123">
+        <v>6</v>
+      </c>
+      <c r="AL123">
+        <v>9</v>
+      </c>
+      <c r="AO123">
+        <v>9</v>
+      </c>
+      <c r="AR123">
+        <v>9</v>
+      </c>
+      <c r="AU123">
+        <v>9</v>
+      </c>
+      <c r="AX123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:50">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C124" t="s">
+        <v>107</v>
+      </c>
+      <c r="D124" t="s">
+        <v>133</v>
+      </c>
+      <c r="E124">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q23/rs1201448391.md", "39")</f>
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q23/rs1201448391.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1201448391.md", "31")</f>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>8</v>
+      </c>
+      <c r="K124">
+        <v>8</v>
+      </c>
+      <c r="N124">
+        <v>7</v>
+      </c>
+      <c r="Q124">
+        <v>8</v>
+      </c>
+      <c r="T124">
+        <v>8</v>
+      </c>
+      <c r="W124">
+        <v>1</v>
+      </c>
+      <c r="Z124">
+        <v>7</v>
+      </c>
+      <c r="AC124">
+        <v>7</v>
+      </c>
+      <c r="AF124">
+        <v>1</v>
+      </c>
+      <c r="AI124">
+        <v>5</v>
+      </c>
+      <c r="AL124">
+        <v>8</v>
+      </c>
+      <c r="AO124">
+        <v>8</v>
+      </c>
+      <c r="AR124">
+        <v>2</v>
+      </c>
+      <c r="AU124">
+        <v>8</v>
+      </c>
+      <c r="AX124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:50">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>71</v>
+      </c>
+      <c r="C125" t="s">
+        <v>122</v>
+      </c>
+      <c r="D125" t="s">
+        <v>132</v>
+      </c>
+      <c r="E125">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q24/rs34637584.md", "20")</f>
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q24/rs34637584.md", "11")</f>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs34637584.md", "35")</f>
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>5</v>
+      </c>
+      <c r="J125" t="s">
+        <v>173</v>
+      </c>
+      <c r="K125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="W125">
+        <v>1</v>
+      </c>
+      <c r="Z125">
+        <v>5</v>
+      </c>
+      <c r="AC125">
+        <v>2</v>
+      </c>
+      <c r="AF125">
+        <v>1</v>
+      </c>
+      <c r="AI125">
+        <v>2</v>
+      </c>
+      <c r="AL125">
+        <v>8</v>
+      </c>
+      <c r="AO125">
+        <v>8</v>
+      </c>
+      <c r="AR125">
+        <v>5</v>
+      </c>
+      <c r="AU125">
+        <v>8</v>
+      </c>
+      <c r="AX125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:50">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>72</v>
+      </c>
+      <c r="C126" t="s">
+        <v>111</v>
+      </c>
+      <c r="D126" t="s">
+        <v>133</v>
+      </c>
+      <c r="E126">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q25/rs880315.md", "34")</f>
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q25/rs880315.md", "17")</f>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs880315.md", "27")</f>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>8</v>
+      </c>
+      <c r="K126">
+        <v>8</v>
+      </c>
+      <c r="N126">
+        <v>5</v>
+      </c>
+      <c r="Q126">
+        <v>8</v>
+      </c>
+      <c r="T126">
+        <v>5</v>
+      </c>
+      <c r="W126">
+        <v>1</v>
+      </c>
+      <c r="Z126">
+        <v>6</v>
+      </c>
+      <c r="AC126">
+        <v>5</v>
+      </c>
+      <c r="AF126">
+        <v>1</v>
+      </c>
+      <c r="AI126">
+        <v>4</v>
+      </c>
+      <c r="AL126">
+        <v>6</v>
+      </c>
+      <c r="AO126">
+        <v>6</v>
+      </c>
+      <c r="AR126">
+        <v>3</v>
+      </c>
+      <c r="AU126">
+        <v>7</v>
+      </c>
+      <c r="AX126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:50">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>73</v>
+      </c>
+      <c r="C127" t="s">
+        <v>106</v>
+      </c>
+      <c r="D127" t="s">
+        <v>133</v>
+      </c>
+      <c r="E127">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q26/rs80356821.md", "31")</f>
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q26/rs80356821.md", "18")</f>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs80356821.md", "27")</f>
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>7</v>
+      </c>
+      <c r="K127">
+        <v>7</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="Q127">
+        <v>7</v>
+      </c>
+      <c r="T127">
+        <v>5</v>
+      </c>
+      <c r="W127">
+        <v>1</v>
+      </c>
+      <c r="Z127">
+        <v>6</v>
+      </c>
+      <c r="AC127">
+        <v>5</v>
+      </c>
+      <c r="AF127">
+        <v>1</v>
+      </c>
+      <c r="AI127">
+        <v>5</v>
+      </c>
+      <c r="AL127">
+        <v>7</v>
+      </c>
+      <c r="AO127">
+        <v>7</v>
+      </c>
+      <c r="AR127">
+        <v>3</v>
+      </c>
+      <c r="AU127">
+        <v>7</v>
+      </c>
+      <c r="AX127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:50">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>74</v>
+      </c>
+      <c r="C128" t="s">
+        <v>129</v>
+      </c>
+      <c r="D128" t="s">
+        <v>133</v>
+      </c>
+      <c r="E128">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q27/rs113488022.md", "31")</f>
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q27/rs113488022.md", "23")</f>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs113488022.md", "25")</f>
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>7</v>
+      </c>
+      <c r="K128">
+        <v>7</v>
+      </c>
+      <c r="N128">
+        <v>5</v>
+      </c>
+      <c r="Q128">
+        <v>7</v>
+      </c>
+      <c r="T128">
+        <v>5</v>
+      </c>
+      <c r="W128">
+        <v>3</v>
+      </c>
+      <c r="Z128">
+        <v>7</v>
+      </c>
+      <c r="AC128">
+        <v>5</v>
+      </c>
+      <c r="AF128">
+        <v>3</v>
+      </c>
+      <c r="AI128">
+        <v>5</v>
+      </c>
+      <c r="AL128">
+        <v>7</v>
+      </c>
+      <c r="AO128">
+        <v>7</v>
+      </c>
+      <c r="AR128">
+        <v>2</v>
+      </c>
+      <c r="AU128">
+        <v>7</v>
+      </c>
+      <c r="AX128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:50">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>75</v>
+      </c>
+      <c r="C129" t="s">
+        <v>107</v>
+      </c>
+      <c r="D129" t="s">
+        <v>133</v>
+      </c>
+      <c r="E129">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q28/rs1201448391.md", "33")</f>
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q28/rs1201448391.md", "30")</f>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1201448391.md", "28")</f>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>8</v>
+      </c>
+      <c r="K129">
+        <v>7</v>
+      </c>
+      <c r="N129">
+        <v>5</v>
+      </c>
+      <c r="Q129">
+        <v>6</v>
+      </c>
+      <c r="T129">
+        <v>7</v>
+      </c>
+      <c r="W129">
+        <v>7</v>
+      </c>
+      <c r="Z129">
+        <v>7</v>
+      </c>
+      <c r="AC129">
+        <v>4</v>
+      </c>
+      <c r="AF129">
+        <v>5</v>
+      </c>
+      <c r="AI129">
+        <v>7</v>
+      </c>
+      <c r="AL129">
+        <v>8</v>
+      </c>
+      <c r="AO129">
+        <v>7</v>
+      </c>
+      <c r="AR129">
+        <v>3</v>
+      </c>
+      <c r="AU129">
+        <v>7</v>
+      </c>
+      <c r="AX129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:50">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130" t="s">
+        <v>129</v>
+      </c>
+      <c r="D130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E130">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q29/rs113488022.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q29/rs113488022.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs113488022.md", "38")</f>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>9</v>
+      </c>
+      <c r="K130">
+        <v>9</v>
+      </c>
+      <c r="N130">
+        <v>9</v>
+      </c>
+      <c r="Q130">
+        <v>9</v>
+      </c>
+      <c r="T130">
+        <v>9</v>
+      </c>
+      <c r="W130">
+        <v>2</v>
+      </c>
+      <c r="Z130">
+        <v>7</v>
+      </c>
+      <c r="AC130">
+        <v>6</v>
+      </c>
+      <c r="AF130">
+        <v>1</v>
+      </c>
+      <c r="AI130">
+        <v>5</v>
+      </c>
+      <c r="AL130">
+        <v>8</v>
+      </c>
+      <c r="AO130">
+        <v>8</v>
+      </c>
+      <c r="AR130">
+        <v>6</v>
+      </c>
+      <c r="AU130">
+        <v>8</v>
+      </c>
+      <c r="AX130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:50">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>77</v>
+      </c>
+      <c r="C131" t="s">
+        <v>123</v>
+      </c>
+      <c r="D131" t="s">
+        <v>133</v>
+      </c>
+      <c r="E131">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q30/rs796053216.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q30/rs796053216.md", "23")</f>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053216.md", "44")</f>
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>9</v>
+      </c>
+      <c r="K131">
+        <v>9</v>
+      </c>
+      <c r="N131">
+        <v>9</v>
+      </c>
+      <c r="Q131">
+        <v>9</v>
+      </c>
+      <c r="T131">
+        <v>9</v>
+      </c>
+      <c r="W131">
+        <v>2</v>
+      </c>
+      <c r="Z131">
+        <v>7</v>
+      </c>
+      <c r="AC131">
+        <v>7</v>
+      </c>
+      <c r="AF131">
+        <v>2</v>
+      </c>
+      <c r="AI131">
+        <v>5</v>
+      </c>
+      <c r="AL131">
+        <v>9</v>
+      </c>
+      <c r="AO131">
+        <v>9</v>
+      </c>
+      <c r="AR131">
+        <v>8</v>
+      </c>
+      <c r="AU131">
+        <v>9</v>
+      </c>
+      <c r="AX131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:50">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>78</v>
+      </c>
+      <c r="C132" t="s">
+        <v>108</v>
+      </c>
+      <c r="D132" t="s">
+        <v>133</v>
+      </c>
+      <c r="E132">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q31/rs431905511.md", "44")</f>
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q31/rs431905511.md", "22")</f>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs431905511.md", "30")</f>
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>9</v>
+      </c>
+      <c r="K132">
+        <v>9</v>
+      </c>
+      <c r="N132">
+        <v>8</v>
+      </c>
+      <c r="Q132">
+        <v>9</v>
+      </c>
+      <c r="T132">
+        <v>9</v>
+      </c>
+      <c r="W132">
+        <v>2</v>
+      </c>
+      <c r="Z132">
+        <v>7</v>
+      </c>
+      <c r="AC132">
+        <v>6</v>
+      </c>
+      <c r="AF132">
+        <v>2</v>
+      </c>
+      <c r="AI132">
+        <v>5</v>
+      </c>
+      <c r="AL132">
+        <v>8</v>
+      </c>
+      <c r="AO132">
+        <v>8</v>
+      </c>
+      <c r="AR132">
+        <v>2</v>
+      </c>
+      <c r="AU132">
+        <v>8</v>
+      </c>
+      <c r="AX132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:50">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>79</v>
+      </c>
+      <c r="C133" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133" t="s">
+        <v>133</v>
+      </c>
+      <c r="E133">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q32/rs1208662086.md", "33")</f>
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q32/rs1208662086.md", "24")</f>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1208662086.md", "30")</f>
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>8</v>
+      </c>
+      <c r="K133">
+        <v>8</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="Q133">
+        <v>7</v>
+      </c>
+      <c r="T133">
+        <v>5</v>
+      </c>
+      <c r="W133">
+        <v>2</v>
+      </c>
+      <c r="Z133">
+        <v>7</v>
+      </c>
+      <c r="AC133">
+        <v>5</v>
+      </c>
+      <c r="AF133">
+        <v>5</v>
+      </c>
+      <c r="AI133">
+        <v>5</v>
+      </c>
+      <c r="AL133">
+        <v>8</v>
+      </c>
+      <c r="AO133">
+        <v>8</v>
+      </c>
+      <c r="AR133">
+        <v>3</v>
+      </c>
+      <c r="AU133">
+        <v>7</v>
+      </c>
+      <c r="AX133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:50">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>80</v>
+      </c>
+      <c r="C134" t="s">
+        <v>114</v>
+      </c>
+      <c r="D134" t="s">
+        <v>133</v>
+      </c>
+      <c r="E134">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q33/rs794726784.md", "44")</f>
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q33/rs794726784.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794726784.md", "32")</f>
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>9</v>
+      </c>
+      <c r="K134">
+        <v>9</v>
+      </c>
+      <c r="N134">
+        <v>8</v>
+      </c>
+      <c r="Q134">
+        <v>9</v>
+      </c>
+      <c r="T134">
+        <v>9</v>
+      </c>
+      <c r="W134">
+        <v>1</v>
+      </c>
+      <c r="Z134">
+        <v>7</v>
+      </c>
+      <c r="AC134">
+        <v>7</v>
+      </c>
+      <c r="AF134">
+        <v>1</v>
+      </c>
+      <c r="AI134">
+        <v>5</v>
+      </c>
+      <c r="AL134">
+        <v>8</v>
+      </c>
+      <c r="AO134">
+        <v>8</v>
+      </c>
+      <c r="AR134">
+        <v>4</v>
+      </c>
+      <c r="AU134">
+        <v>8</v>
+      </c>
+      <c r="AX134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:50">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" t="s">
+        <v>129</v>
+      </c>
+      <c r="D135" t="s">
+        <v>133</v>
+      </c>
+      <c r="E135">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q34/rs113488022.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q34/rs113488022.md", "29")</f>
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs113488022.md", "31")</f>
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>9</v>
+      </c>
+      <c r="J135" t="s">
+        <v>174</v>
+      </c>
+      <c r="K135">
+        <v>9</v>
+      </c>
+      <c r="N135">
+        <v>9</v>
+      </c>
+      <c r="Q135">
+        <v>9</v>
+      </c>
+      <c r="T135">
+        <v>9</v>
+      </c>
+      <c r="W135">
+        <v>1</v>
+      </c>
+      <c r="Z135">
+        <v>9</v>
+      </c>
+      <c r="AC135">
+        <v>9</v>
+      </c>
+      <c r="AF135">
+        <v>1</v>
+      </c>
+      <c r="AI135">
+        <v>9</v>
+      </c>
+      <c r="AL135">
+        <v>8</v>
+      </c>
+      <c r="AO135">
+        <v>8</v>
+      </c>
+      <c r="AR135">
+        <v>2</v>
+      </c>
+      <c r="AU135">
+        <v>8</v>
+      </c>
+      <c r="AX135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:50">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" t="s">
+        <v>120</v>
+      </c>
+      <c r="D136" t="s">
+        <v>133</v>
+      </c>
+      <c r="E136">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q35/rs794727152.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q35/rs794727152.md", "16")</f>
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs794727152.md", "34")</f>
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>10</v>
+      </c>
+      <c r="K136">
+        <v>10</v>
+      </c>
+      <c r="N136">
+        <v>10</v>
+      </c>
+      <c r="Q136">
+        <v>10</v>
+      </c>
+      <c r="T136">
+        <v>10</v>
+      </c>
+      <c r="W136">
+        <v>1</v>
+      </c>
+      <c r="Z136">
+        <v>6</v>
+      </c>
+      <c r="AC136">
+        <v>4</v>
+      </c>
+      <c r="AF136">
+        <v>1</v>
+      </c>
+      <c r="AI136">
+        <v>4</v>
+      </c>
+      <c r="AL136">
+        <v>9</v>
+      </c>
+      <c r="AO136">
+        <v>8</v>
+      </c>
+      <c r="AR136">
+        <v>4</v>
+      </c>
+      <c r="AU136">
+        <v>8</v>
+      </c>
+      <c r="AX136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:50">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" t="s">
+        <v>126</v>
+      </c>
+      <c r="D137" t="s">
+        <v>133</v>
+      </c>
+      <c r="E137">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q36/rs1489788269.md", "41")</f>
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q36/rs1489788269.md", "29")</f>
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1489788269.md", "40")</f>
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>9</v>
+      </c>
+      <c r="K137">
+        <v>9</v>
+      </c>
+      <c r="N137">
+        <v>6</v>
+      </c>
+      <c r="P137" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q137">
+        <v>9</v>
+      </c>
+      <c r="T137">
+        <v>8</v>
+      </c>
+      <c r="W137">
+        <v>6</v>
+      </c>
+      <c r="Z137">
+        <v>7</v>
+      </c>
+      <c r="AC137">
+        <v>4</v>
+      </c>
+      <c r="AF137">
+        <v>7</v>
+      </c>
+      <c r="AI137">
+        <v>5</v>
+      </c>
+      <c r="AL137">
+        <v>9</v>
+      </c>
+      <c r="AO137">
+        <v>9</v>
+      </c>
+      <c r="AR137">
+        <v>5</v>
+      </c>
+      <c r="AU137">
+        <v>9</v>
+      </c>
+      <c r="AX137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:50">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" t="s">
+        <v>107</v>
+      </c>
+      <c r="D138" t="s">
+        <v>133</v>
+      </c>
+      <c r="E138">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q37/rs1201448391.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q37/rs1201448391.md", "23")</f>
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1201448391.md", "49")</f>
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>10</v>
+      </c>
+      <c r="K138">
+        <v>10</v>
+      </c>
+      <c r="N138">
+        <v>10</v>
+      </c>
+      <c r="Q138">
+        <v>10</v>
+      </c>
+      <c r="T138">
+        <v>10</v>
+      </c>
+      <c r="W138">
+        <v>3</v>
+      </c>
+      <c r="Z138">
+        <v>7</v>
+      </c>
+      <c r="AC138">
+        <v>5</v>
+      </c>
+      <c r="AF138">
+        <v>3</v>
+      </c>
+      <c r="AI138">
+        <v>5</v>
+      </c>
+      <c r="AL138">
+        <v>10</v>
+      </c>
+      <c r="AO138">
+        <v>10</v>
+      </c>
+      <c r="AR138">
+        <v>9</v>
+      </c>
+      <c r="AU138">
+        <v>10</v>
+      </c>
+      <c r="AX138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:50">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>100</v>
+      </c>
+      <c r="C139" t="s">
+        <v>113</v>
+      </c>
+      <c r="D139" t="s">
+        <v>133</v>
+      </c>
+      <c r="E139">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q38/rs796053229.md", "35")</f>
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q38/rs796053229.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053229.md", "31")</f>
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>8</v>
+      </c>
+      <c r="K139">
+        <v>8</v>
+      </c>
+      <c r="N139">
+        <v>5</v>
+      </c>
+      <c r="Q139">
+        <v>8</v>
+      </c>
+      <c r="T139">
+        <v>6</v>
+      </c>
+      <c r="W139">
+        <v>1</v>
+      </c>
+      <c r="Z139">
+        <v>8</v>
+      </c>
+      <c r="AC139">
+        <v>5</v>
+      </c>
+      <c r="AF139">
+        <v>1</v>
+      </c>
+      <c r="AI139">
+        <v>6</v>
+      </c>
+      <c r="AL139">
+        <v>7</v>
+      </c>
+      <c r="AO139">
+        <v>7</v>
+      </c>
+      <c r="AR139">
+        <v>5</v>
+      </c>
+      <c r="AU139">
+        <v>7</v>
+      </c>
+      <c r="AX139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:50">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>85</v>
+      </c>
+      <c r="C140" t="s">
+        <v>105</v>
+      </c>
+      <c r="D140" t="s">
+        <v>133</v>
+      </c>
+      <c r="E140">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q39/rs571414497.md", "35")</f>
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q39/rs571414497.md", "30")</f>
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs571414497.md", "28")</f>
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>8</v>
+      </c>
+      <c r="K140">
+        <v>8</v>
+      </c>
+      <c r="N140">
+        <v>5</v>
+      </c>
+      <c r="P140" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q140">
+        <v>8</v>
+      </c>
+      <c r="T140">
+        <v>6</v>
+      </c>
+      <c r="W140">
+        <v>6</v>
+      </c>
+      <c r="Z140">
+        <v>6</v>
+      </c>
+      <c r="AC140">
+        <v>6</v>
+      </c>
+      <c r="AF140">
+        <v>6</v>
+      </c>
+      <c r="AI140">
+        <v>6</v>
+      </c>
+      <c r="AL140">
+        <v>8</v>
+      </c>
+      <c r="AO140">
+        <v>7</v>
+      </c>
+      <c r="AR140">
+        <v>2</v>
+      </c>
+      <c r="AU140">
+        <v>7</v>
+      </c>
+      <c r="AX140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:50">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141" t="s">
+        <v>111</v>
+      </c>
+      <c r="D141" t="s">
+        <v>133</v>
+      </c>
+      <c r="E141">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q40/rs880315.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q40/rs880315.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs880315.md", "35")</f>
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>9</v>
+      </c>
+      <c r="J141" t="s">
+        <v>175</v>
+      </c>
+      <c r="K141">
+        <v>9</v>
+      </c>
+      <c r="N141">
+        <v>9</v>
+      </c>
+      <c r="Q141">
+        <v>9</v>
+      </c>
+      <c r="T141">
+        <v>9</v>
+      </c>
+      <c r="W141">
+        <v>2</v>
+      </c>
+      <c r="Z141">
+        <v>7</v>
+      </c>
+      <c r="AC141">
+        <v>6</v>
+      </c>
+      <c r="AF141">
+        <v>1</v>
+      </c>
+      <c r="AI141">
+        <v>5</v>
+      </c>
+      <c r="AL141">
+        <v>8</v>
+      </c>
+      <c r="AO141">
+        <v>8</v>
+      </c>
+      <c r="AR141">
+        <v>5</v>
+      </c>
+      <c r="AU141">
+        <v>8</v>
+      </c>
+      <c r="AX141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:50">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>87</v>
+      </c>
+      <c r="C142" t="s">
+        <v>131</v>
+      </c>
+      <c r="D142" t="s">
+        <v>133</v>
+      </c>
+      <c r="E142">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q41/rs796052984.md", "32")</f>
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q41/rs796052984.md", "20")</f>
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796052984.md", "30")</f>
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>8</v>
+      </c>
+      <c r="K142">
+        <v>7</v>
+      </c>
+      <c r="N142">
+        <v>5</v>
+      </c>
+      <c r="Q142">
+        <v>7</v>
+      </c>
+      <c r="T142">
+        <v>5</v>
+      </c>
+      <c r="W142">
+        <v>1</v>
+      </c>
+      <c r="Z142">
+        <v>7</v>
+      </c>
+      <c r="AC142">
+        <v>6</v>
+      </c>
+      <c r="AF142">
+        <v>1</v>
+      </c>
+      <c r="AI142">
+        <v>5</v>
+      </c>
+      <c r="AL142">
+        <v>8</v>
+      </c>
+      <c r="AO142">
+        <v>7</v>
+      </c>
+      <c r="AR142">
+        <v>2</v>
+      </c>
+      <c r="AU142">
+        <v>8</v>
+      </c>
+      <c r="AX142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:50">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>88</v>
+      </c>
+      <c r="C143" t="s">
+        <v>112</v>
+      </c>
+      <c r="D143" t="s">
+        <v>133</v>
+      </c>
+      <c r="E143">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q42/rs796053166.md", "33")</f>
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q42/rs796053166.md", "24")</f>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053166.md", "27")</f>
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>8</v>
+      </c>
+      <c r="K143">
+        <v>8</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="Q143">
+        <v>7</v>
+      </c>
+      <c r="T143">
+        <v>7</v>
+      </c>
+      <c r="W143">
+        <v>3</v>
+      </c>
+      <c r="Z143">
+        <v>8</v>
+      </c>
+      <c r="AC143">
+        <v>3</v>
+      </c>
+      <c r="AF143">
+        <v>3</v>
+      </c>
+      <c r="AI143">
+        <v>7</v>
+      </c>
+      <c r="AL143">
+        <v>7</v>
+      </c>
+      <c r="AO143">
+        <v>7</v>
+      </c>
+      <c r="AR143">
+        <v>2</v>
+      </c>
+      <c r="AU143">
+        <v>7</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:50">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>89</v>
+      </c>
+      <c r="C144" t="s">
+        <v>124</v>
+      </c>
+      <c r="D144" t="s">
+        <v>133</v>
+      </c>
+      <c r="E144">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q43/rs121913279.md", "38")</f>
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q43/rs121913279.md", "26")</f>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs121913279.md", "32")</f>
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>8</v>
+      </c>
+      <c r="K144">
+        <v>8</v>
+      </c>
+      <c r="N144">
+        <v>6</v>
+      </c>
+      <c r="Q144">
+        <v>8</v>
+      </c>
+      <c r="T144">
+        <v>8</v>
+      </c>
+      <c r="W144">
+        <v>2</v>
+      </c>
+      <c r="Z144">
+        <v>7</v>
+      </c>
+      <c r="AC144">
+        <v>5</v>
+      </c>
+      <c r="AF144">
+        <v>7</v>
+      </c>
+      <c r="AI144">
+        <v>5</v>
+      </c>
+      <c r="AL144">
+        <v>8</v>
+      </c>
+      <c r="AO144">
+        <v>8</v>
+      </c>
+      <c r="AR144">
+        <v>3</v>
+      </c>
+      <c r="AU144">
+        <v>8</v>
+      </c>
+      <c r="AX144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:50">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>90</v>
+      </c>
+      <c r="C145" t="s">
+        <v>115</v>
+      </c>
+      <c r="D145" t="s">
+        <v>133</v>
+      </c>
+      <c r="E145">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q44/rs763684724.md", "33")</f>
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q44/rs763684724.md", "21")</f>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs763684724.md", "28")</f>
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>8</v>
+      </c>
+      <c r="K145">
+        <v>7</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="Q145">
+        <v>8</v>
+      </c>
+      <c r="T145">
+        <v>5</v>
+      </c>
+      <c r="W145">
+        <v>5</v>
+      </c>
+      <c r="Z145">
+        <v>7</v>
+      </c>
+      <c r="AC145">
+        <v>2</v>
+      </c>
+      <c r="AF145">
+        <v>2</v>
+      </c>
+      <c r="AI145">
+        <v>5</v>
+      </c>
+      <c r="AL145">
+        <v>7</v>
+      </c>
+      <c r="AO145">
+        <v>7</v>
+      </c>
+      <c r="AR145">
+        <v>2</v>
+      </c>
+      <c r="AU145">
+        <v>7</v>
+      </c>
+      <c r="AX145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:50">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" t="s">
+        <v>121</v>
+      </c>
+      <c r="D146" t="s">
+        <v>133</v>
+      </c>
+      <c r="E146">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q45/rs1208662086.md", "40")</f>
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q45/rs1208662086.md", "25")</f>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs1208662086.md", "30")</f>
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>8</v>
+      </c>
+      <c r="K146">
+        <v>8</v>
+      </c>
+      <c r="N146">
+        <v>8</v>
+      </c>
+      <c r="Q146">
+        <v>8</v>
+      </c>
+      <c r="T146">
+        <v>8</v>
+      </c>
+      <c r="W146">
+        <v>2</v>
+      </c>
+      <c r="Z146">
+        <v>8</v>
+      </c>
+      <c r="AC146">
+        <v>6</v>
+      </c>
+      <c r="AF146">
+        <v>2</v>
+      </c>
+      <c r="AI146">
+        <v>7</v>
+      </c>
+      <c r="AL146">
+        <v>8</v>
+      </c>
+      <c r="AO146">
+        <v>7</v>
+      </c>
+      <c r="AR146">
+        <v>2</v>
+      </c>
+      <c r="AU146">
+        <v>8</v>
+      </c>
+      <c r="AX146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:50">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>92</v>
+      </c>
+      <c r="C147" t="s">
+        <v>115</v>
+      </c>
+      <c r="D147" t="s">
+        <v>133</v>
+      </c>
+      <c r="E147">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q46/rs763684724.md", "33")</f>
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q46/rs763684724.md", "19")</f>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs763684724.md", "27")</f>
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>8</v>
+      </c>
+      <c r="K147">
+        <v>8</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="P147" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q147">
+        <v>8</v>
+      </c>
+      <c r="T147">
+        <v>6</v>
+      </c>
+      <c r="W147">
+        <v>4</v>
+      </c>
+      <c r="Z147">
+        <v>7</v>
+      </c>
+      <c r="AC147">
+        <v>2</v>
+      </c>
+      <c r="AF147">
+        <v>2</v>
+      </c>
+      <c r="AI147">
+        <v>4</v>
+      </c>
+      <c r="AL147">
+        <v>7</v>
+      </c>
+      <c r="AO147">
+        <v>7</v>
+      </c>
+      <c r="AR147">
+        <v>2</v>
+      </c>
+      <c r="AU147">
+        <v>7</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:50">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" t="s">
+        <v>112</v>
+      </c>
+      <c r="D148" t="s">
+        <v>133</v>
+      </c>
+      <c r="E148">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q47/rs796053166.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q47/rs796053166.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796053166.md", "32")</f>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>10</v>
+      </c>
+      <c r="K148">
+        <v>10</v>
+      </c>
+      <c r="N148">
+        <v>10</v>
+      </c>
+      <c r="Q148">
+        <v>10</v>
+      </c>
+      <c r="T148">
+        <v>10</v>
+      </c>
+      <c r="W148">
+        <v>9</v>
+      </c>
+      <c r="Z148">
+        <v>9</v>
+      </c>
+      <c r="AC148">
+        <v>9</v>
+      </c>
+      <c r="AF148">
+        <v>9</v>
+      </c>
+      <c r="AI148">
+        <v>9</v>
+      </c>
+      <c r="AL148">
+        <v>8</v>
+      </c>
+      <c r="AO148">
+        <v>7</v>
+      </c>
+      <c r="AR148">
+        <v>4</v>
+      </c>
+      <c r="AU148">
+        <v>8</v>
+      </c>
+      <c r="AX148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:50">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>93</v>
+      </c>
+      <c r="C149" t="s">
+        <v>103</v>
+      </c>
+      <c r="D149" t="s">
+        <v>133</v>
+      </c>
+      <c r="E149">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q48/rs762927460.md", "48")</f>
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q48/rs762927460.md", "41")</f>
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs762927460.md", "31")</f>
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>10</v>
+      </c>
+      <c r="K149">
+        <v>10</v>
+      </c>
+      <c r="N149">
+        <v>8</v>
+      </c>
+      <c r="Q149">
+        <v>10</v>
+      </c>
+      <c r="T149">
+        <v>10</v>
+      </c>
+      <c r="W149">
+        <v>9</v>
+      </c>
+      <c r="Z149">
+        <v>9</v>
+      </c>
+      <c r="AC149">
+        <v>9</v>
+      </c>
+      <c r="AF149">
+        <v>5</v>
+      </c>
+      <c r="AI149">
+        <v>9</v>
+      </c>
+      <c r="AL149">
+        <v>8</v>
+      </c>
+      <c r="AO149">
+        <v>8</v>
+      </c>
+      <c r="AR149">
+        <v>2</v>
+      </c>
+      <c r="AU149">
+        <v>8</v>
+      </c>
+      <c r="AX149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:50">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>94</v>
+      </c>
+      <c r="C150" t="s">
+        <v>128</v>
+      </c>
+      <c r="D150" t="s">
+        <v>133</v>
+      </c>
+      <c r="E150">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q49/rs121918719.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q49/rs121918719.md", "20")</f>
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs121918719.md", "27")</f>
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>10</v>
+      </c>
+      <c r="K150">
+        <v>10</v>
+      </c>
+      <c r="N150">
+        <v>10</v>
+      </c>
+      <c r="Q150">
+        <v>10</v>
+      </c>
+      <c r="T150">
+        <v>10</v>
+      </c>
+      <c r="W150">
+        <v>2</v>
+      </c>
+      <c r="Z150">
+        <v>7</v>
+      </c>
+      <c r="AC150">
+        <v>5</v>
+      </c>
+      <c r="AF150">
+        <v>1</v>
+      </c>
+      <c r="AI150">
+        <v>5</v>
+      </c>
+      <c r="AL150">
+        <v>7</v>
+      </c>
+      <c r="AO150">
+        <v>7</v>
+      </c>
+      <c r="AR150">
+        <v>2</v>
+      </c>
+      <c r="AU150">
+        <v>7</v>
+      </c>
+      <c r="AX150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:50">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>95</v>
+      </c>
+      <c r="C151" t="s">
+        <v>131</v>
+      </c>
+      <c r="D151" t="s">
+        <v>133</v>
+      </c>
+      <c r="E151">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/chat_togovar/q50/rs796052984.md", "50")</f>
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/gpt-4o/q50/rs796052984.md", "45")</f>
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <f>HYPERLINK("https://github.com/mitsuhashi/chat-togovar/blob/main/answers/varchat/rs796052984.md", "31")</f>
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>10</v>
+      </c>
+      <c r="K151">
+        <v>10</v>
+      </c>
+      <c r="N151">
+        <v>10</v>
+      </c>
+      <c r="Q151">
+        <v>10</v>
+      </c>
+      <c r="T151">
+        <v>10</v>
+      </c>
+      <c r="W151">
+        <v>9</v>
+      </c>
+      <c r="Z151">
+        <v>9</v>
+      </c>
+      <c r="AC151">
+        <v>9</v>
+      </c>
+      <c r="AF151">
+        <v>9</v>
+      </c>
+      <c r="AI151">
+        <v>9</v>
+      </c>
+      <c r="AL151">
+        <v>8</v>
+      </c>
+      <c r="AO151">
+        <v>7</v>
+      </c>
+      <c r="AR151">
+        <v>3</v>
+      </c>
+      <c r="AU151">
+        <v>8</v>
+      </c>
+      <c r="AX151">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="C2">
-        <v>8.64</v>
+        <v>8.633333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="C3">
-        <v>8.4933333333333341</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="C4">
-        <v>8.64</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="C5">
-        <v>8.64</v>
+        <v>8.566666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="C6">
-        <v>8.44</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="C7">
-        <v>2.2799999999999998</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="C8">
-        <v>4.88</v>
+        <v>5.033333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="C9">
-        <v>4.9333333333333336</v>
+        <v>5.266666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="C10">
-        <v>5.0133333333333336</v>
+        <v>5.866666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="C11">
-        <v>2.0533333333333328</v>
+        <v>2.553333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="C12">
-        <v>6.4933333333333332</v>
+        <v>7.133333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="C13">
-        <v>5.706666666666667</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="C14">
-        <v>6.7333333333333334</v>
+        <v>6.026666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="C15">
-        <v>6.5733333333333333</v>
+        <v>6.873333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="C16">
-        <v>5.5866666666666669</v>
+        <v>6.366666666666666</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2.67</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>9.33</v>
+        <v>6.67</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>